--- a/weather.xlsx
+++ b/weather.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,49 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b054eb5417e4da43/Documents/DTU/2. Semester/Advanced Business Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{DAD3DA10-2256-4F09-9700-3E2272108D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF23AE94-E277-41D7-9C1F-8E2314CF9583}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32A5FA97-73C3-4103-BF75-76CE79BEC8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40935" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{538A029F-54AB-4D61-9477-A0143EFA5C00}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="weather" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="10">
   <si>
-    <t>Rain</t>
+    <t>Low</t>
   </si>
   <si>
     <t>High</t>
   </si>
   <si>
-    <t>Low</t>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Month/Year</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>Month/Year</t>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
   <si>
     <t>Portland</t>
@@ -61,18 +51,12 @@
   <si>
     <t>Princeton</t>
   </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +64,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -97,16 +381,205 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,39 +890,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000B5E81-52D6-442A-91DF-37F4BAB3DB0C}">
-  <dimension ref="A1:G109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G469"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -466,7 +934,7 @@
         <v>43831</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>45.53</v>
@@ -489,7 +957,7 @@
         <v>43862</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>45.53</v>
@@ -512,7 +980,7 @@
         <v>43891</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>45.53</v>
@@ -535,7 +1003,7 @@
         <v>43922</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>45.53</v>
@@ -558,7 +1026,7 @@
         <v>43952</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>45.53</v>
@@ -581,7 +1049,7 @@
         <v>43983</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>45.53</v>
@@ -604,7 +1072,7 @@
         <v>44013</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>45.53</v>
@@ -627,7 +1095,7 @@
         <v>44044</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>45.53</v>
@@ -650,7 +1118,7 @@
         <v>44075</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>45.53</v>
@@ -673,7 +1141,7 @@
         <v>44105</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>45.53</v>
@@ -696,7 +1164,7 @@
         <v>44136</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>45.53</v>
@@ -719,7 +1187,7 @@
         <v>44166</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>45.53</v>
@@ -742,7 +1210,7 @@
         <v>42736</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>45.53</v>
@@ -765,7 +1233,7 @@
         <v>42767</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15">
         <v>45.53</v>
@@ -788,7 +1256,7 @@
         <v>42795</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16">
         <v>45.53</v>
@@ -811,7 +1279,7 @@
         <v>42826</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>45.53</v>
@@ -834,7 +1302,7 @@
         <v>42856</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>45.53</v>
@@ -857,7 +1325,7 @@
         <v>42887</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>45.53</v>
@@ -880,7 +1348,7 @@
         <v>42917</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>45.53</v>
@@ -903,7 +1371,7 @@
         <v>42948</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21">
         <v>45.53</v>
@@ -926,7 +1394,7 @@
         <v>42979</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>45.53</v>
@@ -949,7 +1417,7 @@
         <v>43009</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>45.53</v>
@@ -972,7 +1440,7 @@
         <v>43040</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24">
         <v>45.53</v>
@@ -995,7 +1463,7 @@
         <v>43070</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>45.53</v>
@@ -1018,7 +1486,7 @@
         <v>41640</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>45.53</v>
@@ -1041,7 +1509,7 @@
         <v>41671</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>45.53</v>
@@ -1064,7 +1532,7 @@
         <v>41699</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>45.53</v>
@@ -1087,7 +1555,7 @@
         <v>41730</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <v>45.53</v>
@@ -1110,7 +1578,7 @@
         <v>41760</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30">
         <v>45.53</v>
@@ -1133,7 +1601,7 @@
         <v>41791</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31">
         <v>45.53</v>
@@ -1156,7 +1624,7 @@
         <v>41821</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>45.53</v>
@@ -1179,7 +1647,7 @@
         <v>41852</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>45.53</v>
@@ -1202,7 +1670,7 @@
         <v>41883</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34">
         <v>45.53</v>
@@ -1225,7 +1693,7 @@
         <v>41913</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35">
         <v>45.53</v>
@@ -1248,7 +1716,7 @@
         <v>41944</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>45.53</v>
@@ -1271,7 +1739,7 @@
         <v>41974</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>45.53</v>
@@ -1294,7 +1762,7 @@
         <v>43831</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>44.08</v>
@@ -1317,7 +1785,7 @@
         <v>43862</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>44.08</v>
@@ -1340,7 +1808,7 @@
         <v>43891</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40">
         <v>44.08</v>
@@ -1363,7 +1831,7 @@
         <v>43922</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F41">
         <v>44.08</v>
@@ -1386,7 +1854,7 @@
         <v>43952</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>44.08</v>
@@ -1409,7 +1877,7 @@
         <v>43983</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>44.08</v>
@@ -1432,7 +1900,7 @@
         <v>44013</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F44">
         <v>44.08</v>
@@ -1455,7 +1923,7 @@
         <v>44044</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45">
         <v>44.08</v>
@@ -1478,7 +1946,7 @@
         <v>44075</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>44.08</v>
@@ -1501,7 +1969,7 @@
         <v>44105</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F47">
         <v>44.08</v>
@@ -1524,7 +1992,7 @@
         <v>44136</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>44.08</v>
@@ -1547,7 +2015,7 @@
         <v>44166</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F49">
         <v>44.08</v>
@@ -1570,7 +2038,7 @@
         <v>42736</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>44.08</v>
@@ -1593,7 +2061,7 @@
         <v>42767</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51">
         <v>44.08</v>
@@ -1616,7 +2084,7 @@
         <v>42795</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <v>44.08</v>
@@ -1639,7 +2107,7 @@
         <v>42826</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>44.08</v>
@@ -1662,7 +2130,7 @@
         <v>42856</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F54">
         <v>44.08</v>
@@ -1685,7 +2153,7 @@
         <v>42887</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>44.08</v>
@@ -1708,7 +2176,7 @@
         <v>42917</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <v>44.08</v>
@@ -1731,7 +2199,7 @@
         <v>42948</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>44.08</v>
@@ -1754,7 +2222,7 @@
         <v>42979</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>44.08</v>
@@ -1777,7 +2245,7 @@
         <v>43009</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F59">
         <v>44.08</v>
@@ -1800,7 +2268,7 @@
         <v>43040</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60">
         <v>44.08</v>
@@ -1823,7 +2291,7 @@
         <v>43070</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F61">
         <v>44.08</v>
@@ -1846,7 +2314,7 @@
         <v>41640</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F62">
         <v>44.08</v>
@@ -1869,7 +2337,7 @@
         <v>41671</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <v>44.08</v>
@@ -1892,7 +2360,7 @@
         <v>41699</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F64">
         <v>44.08</v>
@@ -1915,7 +2383,7 @@
         <v>41730</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F65">
         <v>44.08</v>
@@ -1938,7 +2406,7 @@
         <v>41760</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66">
         <v>44.08</v>
@@ -1961,7 +2429,7 @@
         <v>41791</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F67">
         <v>44.08</v>
@@ -1984,7 +2452,7 @@
         <v>41821</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F68">
         <v>44.08</v>
@@ -2007,7 +2475,7 @@
         <v>41852</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F69">
         <v>44.08</v>
@@ -2030,7 +2498,7 @@
         <v>41883</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F70">
         <v>44.08</v>
@@ -2053,7 +2521,7 @@
         <v>41913</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F71">
         <v>44.08</v>
@@ -2076,7 +2544,7 @@
         <v>41944</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F72">
         <v>44.08</v>
@@ -2099,7 +2567,7 @@
         <v>41974</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F73">
         <v>44.08</v>
@@ -2122,7 +2590,7 @@
         <v>43831</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74">
         <v>42.82</v>
@@ -2145,7 +2613,7 @@
         <v>43862</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75">
         <v>42.82</v>
@@ -2168,7 +2636,7 @@
         <v>43891</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76">
         <v>42.82</v>
@@ -2191,7 +2659,7 @@
         <v>43922</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77">
         <v>42.82</v>
@@ -2214,7 +2682,7 @@
         <v>43952</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>42.82</v>
@@ -2237,7 +2705,7 @@
         <v>43983</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>42.82</v>
@@ -2260,7 +2728,7 @@
         <v>44013</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80">
         <v>42.82</v>
@@ -2283,7 +2751,7 @@
         <v>44044</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81">
         <v>42.82</v>
@@ -2306,7 +2774,7 @@
         <v>44075</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F82">
         <v>42.82</v>
@@ -2329,7 +2797,7 @@
         <v>44105</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F83">
         <v>42.82</v>
@@ -2352,7 +2820,7 @@
         <v>44136</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F84">
         <v>42.82</v>
@@ -2375,7 +2843,7 @@
         <v>44166</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F85">
         <v>42.82</v>
@@ -2398,7 +2866,7 @@
         <v>42736</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F86">
         <v>42.82</v>
@@ -2421,7 +2889,7 @@
         <v>42767</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87">
         <v>42.82</v>
@@ -2444,7 +2912,7 @@
         <v>42795</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F88">
         <v>42.82</v>
@@ -2467,7 +2935,7 @@
         <v>42826</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F89">
         <v>42.82</v>
@@ -2490,7 +2958,7 @@
         <v>42856</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90">
         <v>42.82</v>
@@ -2513,7 +2981,7 @@
         <v>42887</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F91">
         <v>42.82</v>
@@ -2536,7 +3004,7 @@
         <v>42917</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>42.82</v>
@@ -2559,7 +3027,7 @@
         <v>42948</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F93">
         <v>42.82</v>
@@ -2582,7 +3050,7 @@
         <v>42979</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F94">
         <v>42.82</v>
@@ -2605,7 +3073,7 @@
         <v>43009</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F95">
         <v>42.82</v>
@@ -2628,7 +3096,7 @@
         <v>43040</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F96">
         <v>42.82</v>
@@ -2651,7 +3119,7 @@
         <v>43070</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F97">
         <v>42.82</v>
@@ -2674,7 +3142,7 @@
         <v>41640</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F98">
         <v>42.82</v>
@@ -2697,7 +3165,7 @@
         <v>41671</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F99">
         <v>42.82</v>
@@ -2720,7 +3188,7 @@
         <v>41699</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F100">
         <v>42.82</v>
@@ -2743,7 +3211,7 @@
         <v>41730</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F101">
         <v>42.82</v>
@@ -2766,7 +3234,7 @@
         <v>41760</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F102">
         <v>42.82</v>
@@ -2789,7 +3257,7 @@
         <v>41791</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F103">
         <v>42.82</v>
@@ -2812,7 +3280,7 @@
         <v>41821</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F104">
         <v>42.82</v>
@@ -2835,7 +3303,7 @@
         <v>41852</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F105">
         <v>42.82</v>
@@ -2858,7 +3326,7 @@
         <v>41883</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F106">
         <v>42.82</v>
@@ -2881,7 +3349,7 @@
         <v>41913</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F107">
         <v>42.82</v>
@@ -2904,7 +3372,7 @@
         <v>41944</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F108">
         <v>42.82</v>
@@ -2927,12 +3395,8292 @@
         <v>41974</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F109">
         <v>42.82</v>
       </c>
       <c r="G109">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>37.1</v>
+      </c>
+      <c r="B110">
+        <v>49.2</v>
+      </c>
+      <c r="C110">
+        <v>2.79</v>
+      </c>
+      <c r="D110" s="1">
+        <v>43101</v>
+      </c>
+      <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110">
+        <v>45.53</v>
+      </c>
+      <c r="G110">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B111">
+        <v>42.9</v>
+      </c>
+      <c r="C111">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D111" s="1">
+        <v>43132</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111">
+        <v>45.53</v>
+      </c>
+      <c r="G111">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="B112">
+        <v>56.6</v>
+      </c>
+      <c r="C112">
+        <v>1.54</v>
+      </c>
+      <c r="D112" s="1">
+        <v>43160</v>
+      </c>
+      <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>45.53</v>
+      </c>
+      <c r="G112">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>46.1</v>
+      </c>
+      <c r="B113">
+        <v>62.6</v>
+      </c>
+      <c r="C113">
+        <v>2.98</v>
+      </c>
+      <c r="D113" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113">
+        <v>45.53</v>
+      </c>
+      <c r="G113">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>51.6</v>
+      </c>
+      <c r="B114">
+        <v>72.7</v>
+      </c>
+      <c r="C114">
+        <v>1.51</v>
+      </c>
+      <c r="D114" s="1">
+        <v>43221</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>45.53</v>
+      </c>
+      <c r="G114">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>54.8</v>
+      </c>
+      <c r="B115">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="C115">
+        <v>53.7</v>
+      </c>
+      <c r="D115" s="1">
+        <v>43252</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>45.53</v>
+      </c>
+      <c r="G115">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>60.3</v>
+      </c>
+      <c r="B116">
+        <v>80.3</v>
+      </c>
+      <c r="C116">
+        <v>0.8</v>
+      </c>
+      <c r="D116" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <v>45.53</v>
+      </c>
+      <c r="G116">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>60.9</v>
+      </c>
+      <c r="B117">
+        <v>82.6</v>
+      </c>
+      <c r="C117">
+        <v>1.23</v>
+      </c>
+      <c r="D117" s="1">
+        <v>43313</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>45.53</v>
+      </c>
+      <c r="G117">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>56.8</v>
+      </c>
+      <c r="B118">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="C118">
+        <v>3.85</v>
+      </c>
+      <c r="D118" s="1">
+        <v>43344</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>45.53</v>
+      </c>
+      <c r="G118">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>42.1</v>
+      </c>
+      <c r="B119">
+        <v>60.8</v>
+      </c>
+      <c r="C119">
+        <v>1.51</v>
+      </c>
+      <c r="D119" s="1">
+        <v>43374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>45.53</v>
+      </c>
+      <c r="G119">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B120">
+        <v>54.4</v>
+      </c>
+      <c r="C120">
+        <v>1.52</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43405</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>45.53</v>
+      </c>
+      <c r="G120">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>38</v>
+      </c>
+      <c r="B121">
+        <v>48.1</v>
+      </c>
+      <c r="C121">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D121" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>45.53</v>
+      </c>
+      <c r="G121">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>40.4</v>
+      </c>
+      <c r="B122">
+        <v>50.8</v>
+      </c>
+      <c r="C122">
+        <v>5.36</v>
+      </c>
+      <c r="D122" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>45.53</v>
+      </c>
+      <c r="G122">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>35.9</v>
+      </c>
+      <c r="B123">
+        <v>49</v>
+      </c>
+      <c r="C123">
+        <v>1.86</v>
+      </c>
+      <c r="D123" s="1">
+        <v>43497</v>
+      </c>
+      <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123">
+        <v>45.53</v>
+      </c>
+      <c r="G123">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>38.5</v>
+      </c>
+      <c r="B124">
+        <v>55.8</v>
+      </c>
+      <c r="C124">
+        <v>2.5</v>
+      </c>
+      <c r="D124" s="1">
+        <v>43525</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124">
+        <v>45.53</v>
+      </c>
+      <c r="G124">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>52.4</v>
+      </c>
+      <c r="B125">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="C125">
+        <v>0.17</v>
+      </c>
+      <c r="D125" s="1">
+        <v>43556</v>
+      </c>
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125">
+        <v>45.53</v>
+      </c>
+      <c r="G125">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>45.4</v>
+      </c>
+      <c r="B126">
+        <v>62.1</v>
+      </c>
+      <c r="C126">
+        <v>3.34</v>
+      </c>
+      <c r="D126" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126">
+        <v>45.53</v>
+      </c>
+      <c r="G126">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>55.3</v>
+      </c>
+      <c r="B127">
+        <v>76.2</v>
+      </c>
+      <c r="C127">
+        <v>1.03</v>
+      </c>
+      <c r="D127" s="1">
+        <v>43617</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>45.53</v>
+      </c>
+      <c r="G127">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>60.5</v>
+      </c>
+      <c r="B128">
+        <v>87.5</v>
+      </c>
+      <c r="C128">
+        <v>0.02</v>
+      </c>
+      <c r="D128" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128">
+        <v>45.53</v>
+      </c>
+      <c r="G128">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>60</v>
+      </c>
+      <c r="B129">
+        <v>84.3</v>
+      </c>
+      <c r="C129">
+        <v>0.06</v>
+      </c>
+      <c r="D129" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129">
+        <v>45.53</v>
+      </c>
+      <c r="G129">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>52.8</v>
+      </c>
+      <c r="B130">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C130">
+        <v>1.59</v>
+      </c>
+      <c r="D130" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130">
+        <v>45.53</v>
+      </c>
+      <c r="G130">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>47.1</v>
+      </c>
+      <c r="B131">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C131">
+        <v>3.43</v>
+      </c>
+      <c r="D131" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E131" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131">
+        <v>45.53</v>
+      </c>
+      <c r="G131">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>41.4</v>
+      </c>
+      <c r="B132">
+        <v>54.8</v>
+      </c>
+      <c r="C132">
+        <v>2.86</v>
+      </c>
+      <c r="D132" s="1">
+        <v>43770</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132">
+        <v>45.53</v>
+      </c>
+      <c r="G132">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B133">
+        <v>49.1</v>
+      </c>
+      <c r="C133">
+        <v>5.08</v>
+      </c>
+      <c r="D133" s="1">
+        <v>43800</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>45.53</v>
+      </c>
+      <c r="G133">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>37</v>
+      </c>
+      <c r="B134">
+        <v>49.9</v>
+      </c>
+      <c r="C134">
+        <v>3.33</v>
+      </c>
+      <c r="D134" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134">
+        <v>45.53</v>
+      </c>
+      <c r="G134">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>41.5</v>
+      </c>
+      <c r="B135">
+        <v>56.8</v>
+      </c>
+      <c r="C135">
+        <v>3.71</v>
+      </c>
+      <c r="D135" s="1">
+        <v>42036</v>
+      </c>
+      <c r="E135" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135">
+        <v>45.53</v>
+      </c>
+      <c r="G135">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>42</v>
+      </c>
+      <c r="B136">
+        <v>62.8</v>
+      </c>
+      <c r="C136">
+        <v>4.71</v>
+      </c>
+      <c r="D136" s="1">
+        <v>42064</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>45.53</v>
+      </c>
+      <c r="G136">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>42.6</v>
+      </c>
+      <c r="B137">
+        <v>62.9</v>
+      </c>
+      <c r="C137">
+        <v>1.75</v>
+      </c>
+      <c r="D137" s="1">
+        <v>42095</v>
+      </c>
+      <c r="E137" t="s">
+        <v>7</v>
+      </c>
+      <c r="F137">
+        <v>45.53</v>
+      </c>
+      <c r="G137">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>51.5</v>
+      </c>
+      <c r="B138">
+        <v>70.7</v>
+      </c>
+      <c r="C138">
+        <v>0.59</v>
+      </c>
+      <c r="D138" s="1">
+        <v>42125</v>
+      </c>
+      <c r="E138" t="s">
+        <v>7</v>
+      </c>
+      <c r="F138">
+        <v>45.53</v>
+      </c>
+      <c r="G138">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>57.9</v>
+      </c>
+      <c r="B139">
+        <v>82.7</v>
+      </c>
+      <c r="C139">
+        <v>0.4</v>
+      </c>
+      <c r="D139" s="1">
+        <v>42156</v>
+      </c>
+      <c r="E139" t="s">
+        <v>7</v>
+      </c>
+      <c r="F139">
+        <v>45.53</v>
+      </c>
+      <c r="G139">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>61.1</v>
+      </c>
+      <c r="B140">
+        <v>86.7</v>
+      </c>
+      <c r="C140">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D140" s="1">
+        <v>42186</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>45.53</v>
+      </c>
+      <c r="G140">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>60.5</v>
+      </c>
+      <c r="B141">
+        <v>84.3</v>
+      </c>
+      <c r="C141">
+        <v>0.66</v>
+      </c>
+      <c r="D141" s="1">
+        <v>42217</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>45.53</v>
+      </c>
+      <c r="G141">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>53.4</v>
+      </c>
+      <c r="B142">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="C142">
+        <v>1.26</v>
+      </c>
+      <c r="D142" s="1">
+        <v>42248</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142">
+        <v>45.53</v>
+      </c>
+      <c r="G142">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>51.2</v>
+      </c>
+      <c r="B143">
+        <v>69</v>
+      </c>
+      <c r="C143">
+        <v>3.69</v>
+      </c>
+      <c r="D143" s="1">
+        <v>42278</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143">
+        <v>45.53</v>
+      </c>
+      <c r="G143">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>38.5</v>
+      </c>
+      <c r="B144">
+        <v>52</v>
+      </c>
+      <c r="C144">
+        <v>4.49</v>
+      </c>
+      <c r="D144" s="1">
+        <v>42309</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144">
+        <v>45.53</v>
+      </c>
+      <c r="G144">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>39.1</v>
+      </c>
+      <c r="B145">
+        <v>47.7</v>
+      </c>
+      <c r="C145">
+        <v>15.24</v>
+      </c>
+      <c r="D145" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145">
+        <v>45.53</v>
+      </c>
+      <c r="G145">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>38</v>
+      </c>
+      <c r="B146">
+        <v>47.2</v>
+      </c>
+      <c r="C146">
+        <v>7.23</v>
+      </c>
+      <c r="D146" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146">
+        <v>45.53</v>
+      </c>
+      <c r="G146">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>42.2</v>
+      </c>
+      <c r="B147">
+        <v>56.4</v>
+      </c>
+      <c r="C147">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D147" s="1">
+        <v>42401</v>
+      </c>
+      <c r="E147" t="s">
+        <v>7</v>
+      </c>
+      <c r="F147">
+        <v>45.53</v>
+      </c>
+      <c r="G147">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>43</v>
+      </c>
+      <c r="B148">
+        <v>57.6</v>
+      </c>
+      <c r="C148">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D148" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148">
+        <v>45.53</v>
+      </c>
+      <c r="G148">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>47</v>
+      </c>
+      <c r="B149">
+        <v>68.5</v>
+      </c>
+      <c r="C149">
+        <v>1.96</v>
+      </c>
+      <c r="D149" s="1">
+        <v>42461</v>
+      </c>
+      <c r="E149" t="s">
+        <v>7</v>
+      </c>
+      <c r="F149">
+        <v>45.53</v>
+      </c>
+      <c r="G149">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>52.1</v>
+      </c>
+      <c r="B150">
+        <v>72.3</v>
+      </c>
+      <c r="C150">
+        <v>1.72</v>
+      </c>
+      <c r="D150" s="1">
+        <v>42491</v>
+      </c>
+      <c r="E150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150">
+        <v>45.53</v>
+      </c>
+      <c r="G150">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>55.4</v>
+      </c>
+      <c r="B151">
+        <v>76.8</v>
+      </c>
+      <c r="C151">
+        <v>1.42</v>
+      </c>
+      <c r="D151" s="1">
+        <v>42522</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151">
+        <v>45.53</v>
+      </c>
+      <c r="G151">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>59.1</v>
+      </c>
+      <c r="B152">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C152">
+        <v>0.66</v>
+      </c>
+      <c r="D152" s="1">
+        <v>42552</v>
+      </c>
+      <c r="E152" t="s">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>45.53</v>
+      </c>
+      <c r="G152">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>59.3</v>
+      </c>
+      <c r="B153">
+        <v>84.5</v>
+      </c>
+      <c r="C153">
+        <v>0.09</v>
+      </c>
+      <c r="D153" s="1">
+        <v>42583</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <v>45.53</v>
+      </c>
+      <c r="G153">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>52.5</v>
+      </c>
+      <c r="B154">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="C154">
+        <v>1.69</v>
+      </c>
+      <c r="D154" s="1">
+        <v>42614</v>
+      </c>
+      <c r="E154" t="s">
+        <v>7</v>
+      </c>
+      <c r="F154">
+        <v>45.53</v>
+      </c>
+      <c r="G154">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>50.5</v>
+      </c>
+      <c r="B155">
+        <v>62.3</v>
+      </c>
+      <c r="C155">
+        <v>8.31</v>
+      </c>
+      <c r="D155" s="1">
+        <v>42644</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155">
+        <v>45.53</v>
+      </c>
+      <c r="G155">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>46.6</v>
+      </c>
+      <c r="B156">
+        <v>58</v>
+      </c>
+      <c r="C156">
+        <v>6.83</v>
+      </c>
+      <c r="D156" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156">
+        <v>45.53</v>
+      </c>
+      <c r="G156">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B157">
+        <v>42.3</v>
+      </c>
+      <c r="C157">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D157" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157">
+        <v>45.53</v>
+      </c>
+      <c r="G157">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>40.5</v>
+      </c>
+      <c r="B158">
+        <v>49.6</v>
+      </c>
+      <c r="C158">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D158" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E158" t="s">
+        <v>7</v>
+      </c>
+      <c r="F158">
+        <v>45.53</v>
+      </c>
+      <c r="G158">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>39</v>
+      </c>
+      <c r="B159">
+        <v>54.1</v>
+      </c>
+      <c r="C159">
+        <v>2.8</v>
+      </c>
+      <c r="D159" s="1">
+        <v>40210</v>
+      </c>
+      <c r="E159" t="s">
+        <v>7</v>
+      </c>
+      <c r="F159">
+        <v>45.53</v>
+      </c>
+      <c r="G159">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>39.6</v>
+      </c>
+      <c r="B160">
+        <v>56.8</v>
+      </c>
+      <c r="C160">
+        <v>3.58</v>
+      </c>
+      <c r="D160" s="1">
+        <v>40238</v>
+      </c>
+      <c r="E160" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160">
+        <v>45.53</v>
+      </c>
+      <c r="G160">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>42.8</v>
+      </c>
+      <c r="B161">
+        <v>59.1</v>
+      </c>
+      <c r="C161">
+        <v>2.92</v>
+      </c>
+      <c r="D161" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161">
+        <v>45.53</v>
+      </c>
+      <c r="G161">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>46.8</v>
+      </c>
+      <c r="B162">
+        <v>63.2</v>
+      </c>
+      <c r="C162">
+        <v>4.75</v>
+      </c>
+      <c r="D162" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162">
+        <v>45.53</v>
+      </c>
+      <c r="G162">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>52.1</v>
+      </c>
+      <c r="B163">
+        <v>68.8</v>
+      </c>
+      <c r="C163">
+        <v>4.28</v>
+      </c>
+      <c r="D163" s="1">
+        <v>40330</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163">
+        <v>45.53</v>
+      </c>
+      <c r="G163">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>55.9</v>
+      </c>
+      <c r="B164">
+        <v>79</v>
+      </c>
+      <c r="C164">
+        <v>0.59</v>
+      </c>
+      <c r="D164" s="1">
+        <v>40360</v>
+      </c>
+      <c r="E164" t="s">
+        <v>7</v>
+      </c>
+      <c r="F164">
+        <v>45.53</v>
+      </c>
+      <c r="G164">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>56.8</v>
+      </c>
+      <c r="B165">
+        <v>79.5</v>
+      </c>
+      <c r="C165">
+        <v>0.23</v>
+      </c>
+      <c r="D165" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E165" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165">
+        <v>45.53</v>
+      </c>
+      <c r="G165">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>55.9</v>
+      </c>
+      <c r="B166">
+        <v>73</v>
+      </c>
+      <c r="C166">
+        <v>3.36</v>
+      </c>
+      <c r="D166" s="1">
+        <v>40422</v>
+      </c>
+      <c r="E166" t="s">
+        <v>7</v>
+      </c>
+      <c r="F166">
+        <v>45.53</v>
+      </c>
+      <c r="G166">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>46.7</v>
+      </c>
+      <c r="B167">
+        <v>63.5</v>
+      </c>
+      <c r="C167">
+        <v>3.87</v>
+      </c>
+      <c r="D167" s="1">
+        <v>40452</v>
+      </c>
+      <c r="E167" t="s">
+        <v>7</v>
+      </c>
+      <c r="F167">
+        <v>45.53</v>
+      </c>
+      <c r="G167">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>39.6</v>
+      </c>
+      <c r="B168">
+        <v>50.3</v>
+      </c>
+      <c r="C168">
+        <v>6.63</v>
+      </c>
+      <c r="D168" s="1">
+        <v>40483</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168">
+        <v>45.53</v>
+      </c>
+      <c r="G168">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>38.5</v>
+      </c>
+      <c r="B169">
+        <v>46.6</v>
+      </c>
+      <c r="C169">
+        <v>8.35</v>
+      </c>
+      <c r="D169" s="1">
+        <v>40513</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169">
+        <v>45.53</v>
+      </c>
+      <c r="G169">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>36.1</v>
+      </c>
+      <c r="B170">
+        <v>47.3</v>
+      </c>
+      <c r="C170">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="D170" s="1">
+        <v>40544</v>
+      </c>
+      <c r="E170" t="s">
+        <v>7</v>
+      </c>
+      <c r="F170">
+        <v>45.53</v>
+      </c>
+      <c r="G170">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>34.1</v>
+      </c>
+      <c r="B171">
+        <v>46.5</v>
+      </c>
+      <c r="C171">
+        <v>4.29</v>
+      </c>
+      <c r="D171" s="1">
+        <v>40575</v>
+      </c>
+      <c r="E171" t="s">
+        <v>7</v>
+      </c>
+      <c r="F171">
+        <v>45.53</v>
+      </c>
+      <c r="G171">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="B172">
+        <v>52.5</v>
+      </c>
+      <c r="C172">
+        <v>6.43</v>
+      </c>
+      <c r="D172" s="1">
+        <v>40603</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172">
+        <v>45.53</v>
+      </c>
+      <c r="G172">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="B173">
+        <v>56</v>
+      </c>
+      <c r="C173">
+        <v>5.04</v>
+      </c>
+      <c r="D173" s="1">
+        <v>40634</v>
+      </c>
+      <c r="E173" t="s">
+        <v>7</v>
+      </c>
+      <c r="F173">
+        <v>45.53</v>
+      </c>
+      <c r="G173">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>45.6</v>
+      </c>
+      <c r="B174">
+        <v>62.5</v>
+      </c>
+      <c r="C174">
+        <v>2.92</v>
+      </c>
+      <c r="D174" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E174" t="s">
+        <v>7</v>
+      </c>
+      <c r="F174">
+        <v>45.53</v>
+      </c>
+      <c r="G174">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>53.2</v>
+      </c>
+      <c r="B175">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="C175">
+        <v>0.73</v>
+      </c>
+      <c r="D175" s="1">
+        <v>40695</v>
+      </c>
+      <c r="E175" t="s">
+        <v>7</v>
+      </c>
+      <c r="F175">
+        <v>45.53</v>
+      </c>
+      <c r="G175">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>56.5</v>
+      </c>
+      <c r="B176">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C176">
+        <v>0.96</v>
+      </c>
+      <c r="D176" s="1">
+        <v>40725</v>
+      </c>
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <v>45.53</v>
+      </c>
+      <c r="G176">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>59.2</v>
+      </c>
+      <c r="B177">
+        <v>80.5</v>
+      </c>
+      <c r="C177">
+        <v>0.17</v>
+      </c>
+      <c r="D177" s="1">
+        <v>40756</v>
+      </c>
+      <c r="E177" t="s">
+        <v>7</v>
+      </c>
+      <c r="F177">
+        <v>45.53</v>
+      </c>
+      <c r="G177">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>59.2</v>
+      </c>
+      <c r="B178">
+        <v>80.5</v>
+      </c>
+      <c r="C178">
+        <v>0.17</v>
+      </c>
+      <c r="D178" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E178" t="s">
+        <v>7</v>
+      </c>
+      <c r="F178">
+        <v>45.53</v>
+      </c>
+      <c r="G178">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>49.2</v>
+      </c>
+      <c r="B179">
+        <v>61.8</v>
+      </c>
+      <c r="C179">
+        <v>2.14</v>
+      </c>
+      <c r="D179" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E179" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179">
+        <v>45.53</v>
+      </c>
+      <c r="G179">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>38.5</v>
+      </c>
+      <c r="B180">
+        <v>51.3</v>
+      </c>
+      <c r="C180">
+        <v>6.57</v>
+      </c>
+      <c r="D180" s="1">
+        <v>40848</v>
+      </c>
+      <c r="E180" t="s">
+        <v>7</v>
+      </c>
+      <c r="F180">
+        <v>45.53</v>
+      </c>
+      <c r="G180">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>38.5</v>
+      </c>
+      <c r="B181">
+        <v>51.3</v>
+      </c>
+      <c r="C181">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D181" s="1">
+        <v>40878</v>
+      </c>
+      <c r="E181" t="s">
+        <v>7</v>
+      </c>
+      <c r="F181">
+        <v>45.53</v>
+      </c>
+      <c r="G181">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="B182">
+        <v>47.3</v>
+      </c>
+      <c r="C182">
+        <v>6.82</v>
+      </c>
+      <c r="D182" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E182" t="s">
+        <v>7</v>
+      </c>
+      <c r="F182">
+        <v>45.53</v>
+      </c>
+      <c r="G182">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="B183">
+        <v>49</v>
+      </c>
+      <c r="C183">
+        <v>2.83</v>
+      </c>
+      <c r="D183" s="1">
+        <v>40940</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183">
+        <v>45.53</v>
+      </c>
+      <c r="G183">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>38</v>
+      </c>
+      <c r="B184">
+        <v>52.1</v>
+      </c>
+      <c r="C184">
+        <v>7.89</v>
+      </c>
+      <c r="D184" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E184" t="s">
+        <v>7</v>
+      </c>
+      <c r="F184">
+        <v>45.53</v>
+      </c>
+      <c r="G184">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>44.5</v>
+      </c>
+      <c r="B185">
+        <v>61.5</v>
+      </c>
+      <c r="C185">
+        <v>3.25</v>
+      </c>
+      <c r="D185" s="1">
+        <v>41000</v>
+      </c>
+      <c r="E185" t="s">
+        <v>7</v>
+      </c>
+      <c r="F185">
+        <v>45.53</v>
+      </c>
+      <c r="G185">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>48</v>
+      </c>
+      <c r="B186">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C186">
+        <v>3.37</v>
+      </c>
+      <c r="D186" s="1">
+        <v>41030</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186">
+        <v>45.53</v>
+      </c>
+      <c r="G186">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>52.7</v>
+      </c>
+      <c r="B187">
+        <v>69.7</v>
+      </c>
+      <c r="C187">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D187" s="1">
+        <v>41061</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
+      <c r="F187">
+        <v>45.53</v>
+      </c>
+      <c r="G187">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>57.8</v>
+      </c>
+      <c r="B188">
+        <v>78.2</v>
+      </c>
+      <c r="C188">
+        <v>0.21</v>
+      </c>
+      <c r="D188" s="1">
+        <v>41091</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188">
+        <v>45.53</v>
+      </c>
+      <c r="G188">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>58.9</v>
+      </c>
+      <c r="B189">
+        <v>83.3</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>41122</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
+      <c r="F189">
+        <v>45.53</v>
+      </c>
+      <c r="G189">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>53.4</v>
+      </c>
+      <c r="B190">
+        <v>78.7</v>
+      </c>
+      <c r="C190">
+        <v>0.04</v>
+      </c>
+      <c r="D190" s="1">
+        <v>41153</v>
+      </c>
+      <c r="E190" t="s">
+        <v>7</v>
+      </c>
+      <c r="F190">
+        <v>45.53</v>
+      </c>
+      <c r="G190">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>47.6</v>
+      </c>
+      <c r="B191">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C191">
+        <v>6.14</v>
+      </c>
+      <c r="D191" s="1">
+        <v>41183</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
+      <c r="F191">
+        <v>45.53</v>
+      </c>
+      <c r="G191">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>43.3</v>
+      </c>
+      <c r="B192">
+        <v>54.1</v>
+      </c>
+      <c r="C192">
+        <v>8.23</v>
+      </c>
+      <c r="D192" s="1">
+        <v>41214</v>
+      </c>
+      <c r="E192" t="s">
+        <v>7</v>
+      </c>
+      <c r="F192">
+        <v>45.53</v>
+      </c>
+      <c r="G192">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>38.5</v>
+      </c>
+      <c r="B193">
+        <v>47.1</v>
+      </c>
+      <c r="C193">
+        <v>7.56</v>
+      </c>
+      <c r="D193" s="1">
+        <v>41244</v>
+      </c>
+      <c r="E193" t="s">
+        <v>7</v>
+      </c>
+      <c r="F193">
+        <v>45.53</v>
+      </c>
+      <c r="G193">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>33</v>
+      </c>
+      <c r="B194">
+        <v>42.7</v>
+      </c>
+      <c r="C194">
+        <v>3.49</v>
+      </c>
+      <c r="D194" s="1">
+        <v>41275</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194">
+        <v>45.53</v>
+      </c>
+      <c r="G194">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>38.1</v>
+      </c>
+      <c r="B195">
+        <v>50.7</v>
+      </c>
+      <c r="C195">
+        <v>1.26</v>
+      </c>
+      <c r="D195" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E195" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195">
+        <v>45.53</v>
+      </c>
+      <c r="G195">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>39.9</v>
+      </c>
+      <c r="B196">
+        <v>57.4</v>
+      </c>
+      <c r="C196">
+        <v>1.46</v>
+      </c>
+      <c r="D196" s="1">
+        <v>41334</v>
+      </c>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
+      <c r="F196">
+        <v>45.53</v>
+      </c>
+      <c r="G196">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>43.4</v>
+      </c>
+      <c r="B197">
+        <v>61.3</v>
+      </c>
+      <c r="C197">
+        <v>2.19</v>
+      </c>
+      <c r="D197" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E197" t="s">
+        <v>7</v>
+      </c>
+      <c r="F197">
+        <v>45.53</v>
+      </c>
+      <c r="G197">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>49.9</v>
+      </c>
+      <c r="B198">
+        <v>69.5</v>
+      </c>
+      <c r="C198">
+        <v>4.75</v>
+      </c>
+      <c r="D198" s="1">
+        <v>41395</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
+      <c r="F198">
+        <v>45.53</v>
+      </c>
+      <c r="G198">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>55.3</v>
+      </c>
+      <c r="B199">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="C199">
+        <v>1.35</v>
+      </c>
+      <c r="D199" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E199" t="s">
+        <v>7</v>
+      </c>
+      <c r="F199">
+        <v>45.53</v>
+      </c>
+      <c r="G199">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>57.6</v>
+      </c>
+      <c r="B200">
+        <v>82.4</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
+        <v>41456</v>
+      </c>
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200">
+        <v>45.53</v>
+      </c>
+      <c r="G200">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>60.9</v>
+      </c>
+      <c r="B201">
+        <v>81.5</v>
+      </c>
+      <c r="C201">
+        <v>0.78</v>
+      </c>
+      <c r="D201" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E201" t="s">
+        <v>7</v>
+      </c>
+      <c r="F201">
+        <v>45.53</v>
+      </c>
+      <c r="G201">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>56.7</v>
+      </c>
+      <c r="B202">
+        <v>72.8</v>
+      </c>
+      <c r="C202">
+        <v>5.62</v>
+      </c>
+      <c r="D202" s="1">
+        <v>41518</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202">
+        <v>45.53</v>
+      </c>
+      <c r="G202">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>43.6</v>
+      </c>
+      <c r="B203">
+        <v>63.4</v>
+      </c>
+      <c r="C203">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D203" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E203" t="s">
+        <v>7</v>
+      </c>
+      <c r="F203">
+        <v>45.53</v>
+      </c>
+      <c r="G203">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B204">
+        <v>52.5</v>
+      </c>
+      <c r="C204">
+        <v>3.05</v>
+      </c>
+      <c r="D204" s="1">
+        <v>41579</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204">
+        <v>45.53</v>
+      </c>
+      <c r="G204">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>31.1</v>
+      </c>
+      <c r="B205">
+        <v>41.6</v>
+      </c>
+      <c r="C205">
+        <v>1.62</v>
+      </c>
+      <c r="D205" s="1">
+        <v>41609</v>
+      </c>
+      <c r="E205" t="s">
+        <v>7</v>
+      </c>
+      <c r="F205">
+        <v>45.53</v>
+      </c>
+      <c r="G205">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>33.6</v>
+      </c>
+      <c r="B206">
+        <v>43.9</v>
+      </c>
+      <c r="C206">
+        <v>2.95</v>
+      </c>
+      <c r="D206" s="1">
+        <v>39448</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
+      <c r="F206">
+        <v>45.53</v>
+      </c>
+      <c r="G206">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B207">
+        <v>52.4</v>
+      </c>
+      <c r="C207">
+        <v>3.09</v>
+      </c>
+      <c r="D207" s="1">
+        <v>39479</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207">
+        <v>45.53</v>
+      </c>
+      <c r="G207">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>37.9</v>
+      </c>
+      <c r="B208">
+        <v>52.9</v>
+      </c>
+      <c r="C208">
+        <v>0.19</v>
+      </c>
+      <c r="D208" s="1">
+        <v>39508</v>
+      </c>
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
+      <c r="F208">
+        <v>45.53</v>
+      </c>
+      <c r="G208">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B209">
+        <v>56.7</v>
+      </c>
+      <c r="C209">
+        <v>0.33</v>
+      </c>
+      <c r="D209" s="1">
+        <v>39539</v>
+      </c>
+      <c r="E209" t="s">
+        <v>7</v>
+      </c>
+      <c r="F209">
+        <v>45.53</v>
+      </c>
+      <c r="G209">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>50.3</v>
+      </c>
+      <c r="B210">
+        <v>67.5</v>
+      </c>
+      <c r="C210">
+        <v>3.25</v>
+      </c>
+      <c r="D210" s="1">
+        <v>39569</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210">
+        <v>45.53</v>
+      </c>
+      <c r="G210">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>51.9</v>
+      </c>
+      <c r="B211">
+        <v>71.8</v>
+      </c>
+      <c r="C211">
+        <v>0.75</v>
+      </c>
+      <c r="D211" s="1">
+        <v>39600</v>
+      </c>
+      <c r="E211" t="s">
+        <v>7</v>
+      </c>
+      <c r="F211">
+        <v>45.53</v>
+      </c>
+      <c r="G211">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>56.8</v>
+      </c>
+      <c r="B212">
+        <v>80.8</v>
+      </c>
+      <c r="C212">
+        <v>1.47</v>
+      </c>
+      <c r="D212" s="1">
+        <v>39630</v>
+      </c>
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
+      <c r="F212">
+        <v>45.53</v>
+      </c>
+      <c r="G212">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>59.2</v>
+      </c>
+      <c r="B213">
+        <v>80</v>
+      </c>
+      <c r="C213">
+        <v>2.29</v>
+      </c>
+      <c r="D213" s="1">
+        <v>39661</v>
+      </c>
+      <c r="E213" t="s">
+        <v>7</v>
+      </c>
+      <c r="F213">
+        <v>45.53</v>
+      </c>
+      <c r="G213">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>53.1</v>
+      </c>
+      <c r="B214">
+        <v>77.3</v>
+      </c>
+      <c r="C214">
+        <v>1.28</v>
+      </c>
+      <c r="D214" s="1">
+        <v>39692</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214">
+        <v>45.53</v>
+      </c>
+      <c r="G214">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>44.9</v>
+      </c>
+      <c r="B215">
+        <v>62.2</v>
+      </c>
+      <c r="C215">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D215" s="1">
+        <v>39722</v>
+      </c>
+      <c r="E215" t="s">
+        <v>7</v>
+      </c>
+      <c r="F215">
+        <v>45.53</v>
+      </c>
+      <c r="G215">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>43.3</v>
+      </c>
+      <c r="B216">
+        <v>55.1</v>
+      </c>
+      <c r="C216">
+        <v>2.39</v>
+      </c>
+      <c r="D216" s="1">
+        <v>39753</v>
+      </c>
+      <c r="E216" t="s">
+        <v>7</v>
+      </c>
+      <c r="F216">
+        <v>45.53</v>
+      </c>
+      <c r="G216">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>32.1</v>
+      </c>
+      <c r="B217">
+        <v>42.8</v>
+      </c>
+      <c r="C217">
+        <v>0.94</v>
+      </c>
+      <c r="D217" s="1">
+        <v>39783</v>
+      </c>
+      <c r="E217" t="s">
+        <v>7</v>
+      </c>
+      <c r="F217">
+        <v>45.53</v>
+      </c>
+      <c r="G217">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>33.9</v>
+      </c>
+      <c r="B218">
+        <v>46.2</v>
+      </c>
+      <c r="C218">
+        <v>1.86</v>
+      </c>
+      <c r="D218" s="1">
+        <v>39814</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218">
+        <v>45.53</v>
+      </c>
+      <c r="G218">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>32.4</v>
+      </c>
+      <c r="B219">
+        <v>50.3</v>
+      </c>
+      <c r="C219">
+        <v>1.28</v>
+      </c>
+      <c r="D219" s="1">
+        <v>39845</v>
+      </c>
+      <c r="E219" t="s">
+        <v>7</v>
+      </c>
+      <c r="F219">
+        <v>45.53</v>
+      </c>
+      <c r="G219">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>38.1</v>
+      </c>
+      <c r="B220">
+        <v>52.5</v>
+      </c>
+      <c r="C220">
+        <v>3.36</v>
+      </c>
+      <c r="D220" s="1">
+        <v>39873</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
+      <c r="F220">
+        <v>45.53</v>
+      </c>
+      <c r="G220">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>42.2</v>
+      </c>
+      <c r="B221">
+        <v>62.3</v>
+      </c>
+      <c r="C221">
+        <v>1.43</v>
+      </c>
+      <c r="D221" s="1">
+        <v>39904</v>
+      </c>
+      <c r="E221" t="s">
+        <v>7</v>
+      </c>
+      <c r="F221">
+        <v>45.53</v>
+      </c>
+      <c r="G221">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>48.7</v>
+      </c>
+      <c r="B222">
+        <v>71.5</v>
+      </c>
+      <c r="C222">
+        <v>3.32</v>
+      </c>
+      <c r="D222" s="1">
+        <v>39934</v>
+      </c>
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <v>45.53</v>
+      </c>
+      <c r="G222">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>56.6</v>
+      </c>
+      <c r="B223">
+        <v>74.8</v>
+      </c>
+      <c r="C223">
+        <v>0.44</v>
+      </c>
+      <c r="D223" s="1">
+        <v>39965</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223">
+        <v>45.53</v>
+      </c>
+      <c r="G223">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>60.6</v>
+      </c>
+      <c r="B224">
+        <v>86.5</v>
+      </c>
+      <c r="C224">
+        <v>0.54</v>
+      </c>
+      <c r="D224" s="1">
+        <v>39995</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
+      <c r="F224">
+        <v>45.53</v>
+      </c>
+      <c r="G224">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>59.3</v>
+      </c>
+      <c r="B225">
+        <v>80.5</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" s="1">
+        <v>40026</v>
+      </c>
+      <c r="E225" t="s">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <v>45.53</v>
+      </c>
+      <c r="G225">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>55.1</v>
+      </c>
+      <c r="B226">
+        <v>77.2</v>
+      </c>
+      <c r="C226">
+        <v>1.24</v>
+      </c>
+      <c r="D226" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <v>45.53</v>
+      </c>
+      <c r="G226">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>47</v>
+      </c>
+      <c r="B227">
+        <v>62.3</v>
+      </c>
+      <c r="C227">
+        <v>3.05</v>
+      </c>
+      <c r="D227" s="1">
+        <v>40087</v>
+      </c>
+      <c r="E227" t="s">
+        <v>7</v>
+      </c>
+      <c r="F227">
+        <v>45.53</v>
+      </c>
+      <c r="G227">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>41.4</v>
+      </c>
+      <c r="B228">
+        <v>54.1</v>
+      </c>
+      <c r="C228">
+        <v>5.13</v>
+      </c>
+      <c r="D228" s="1">
+        <v>40118</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
+      <c r="F228">
+        <v>45.53</v>
+      </c>
+      <c r="G228">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>29.6</v>
+      </c>
+      <c r="B229">
+        <v>41.6</v>
+      </c>
+      <c r="C229">
+        <v>3.76</v>
+      </c>
+      <c r="D229" s="1">
+        <v>40148</v>
+      </c>
+      <c r="E229" t="s">
+        <v>7</v>
+      </c>
+      <c r="F229">
+        <v>45.53</v>
+      </c>
+      <c r="G229">
+        <v>-122.69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>27</v>
+      </c>
+      <c r="B230">
+        <v>28</v>
+      </c>
+      <c r="C230">
+        <v>5.67</v>
+      </c>
+      <c r="D230" s="1">
+        <v>39448</v>
+      </c>
+      <c r="E230" t="s">
+        <v>8</v>
+      </c>
+      <c r="F230">
+        <v>44.08</v>
+      </c>
+      <c r="G230">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>34.1</v>
+      </c>
+      <c r="B231">
+        <v>50.9</v>
+      </c>
+      <c r="C231">
+        <v>6.27</v>
+      </c>
+      <c r="D231" s="1">
+        <v>39479</v>
+      </c>
+      <c r="E231" t="s">
+        <v>8</v>
+      </c>
+      <c r="F231">
+        <v>44.08</v>
+      </c>
+      <c r="G231">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B232">
+        <v>52</v>
+      </c>
+      <c r="C232">
+        <v>2.73</v>
+      </c>
+      <c r="D232" s="1">
+        <v>39508</v>
+      </c>
+      <c r="E232" t="s">
+        <v>8</v>
+      </c>
+      <c r="F232">
+        <v>44.08</v>
+      </c>
+      <c r="G232">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B233">
+        <v>56.6</v>
+      </c>
+      <c r="C233">
+        <v>0.75</v>
+      </c>
+      <c r="D233" s="1">
+        <v>39539</v>
+      </c>
+      <c r="E233" t="s">
+        <v>8</v>
+      </c>
+      <c r="F233">
+        <v>44.08</v>
+      </c>
+      <c r="G233">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>45.3</v>
+      </c>
+      <c r="B234">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="C234">
+        <v>3.85</v>
+      </c>
+      <c r="D234" s="1">
+        <v>39569</v>
+      </c>
+      <c r="E234" t="s">
+        <v>8</v>
+      </c>
+      <c r="F234">
+        <v>44.08</v>
+      </c>
+      <c r="G234">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>44.2</v>
+      </c>
+      <c r="B235">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="C235">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D235" s="1">
+        <v>39600</v>
+      </c>
+      <c r="E235" t="s">
+        <v>8</v>
+      </c>
+      <c r="F235">
+        <v>44.08</v>
+      </c>
+      <c r="G235">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>50.5</v>
+      </c>
+      <c r="B236">
+        <v>83.8</v>
+      </c>
+      <c r="C236">
+        <v>1.71</v>
+      </c>
+      <c r="D236" s="1">
+        <v>39630</v>
+      </c>
+      <c r="E236" t="s">
+        <v>8</v>
+      </c>
+      <c r="F236">
+        <v>44.08</v>
+      </c>
+      <c r="G236">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>52.6</v>
+      </c>
+      <c r="B237">
+        <v>82</v>
+      </c>
+      <c r="C237">
+        <v>1.51</v>
+      </c>
+      <c r="D237" s="1">
+        <v>39661</v>
+      </c>
+      <c r="E237" t="s">
+        <v>8</v>
+      </c>
+      <c r="F237">
+        <v>44.08</v>
+      </c>
+      <c r="G237">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>45.4</v>
+      </c>
+      <c r="B238">
+        <v>78.3</v>
+      </c>
+      <c r="C238">
+        <v>0.66</v>
+      </c>
+      <c r="D238" s="1">
+        <v>39692</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238">
+        <v>44.08</v>
+      </c>
+      <c r="G238">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>40.1</v>
+      </c>
+      <c r="B239">
+        <v>63</v>
+      </c>
+      <c r="C239">
+        <v>3.55</v>
+      </c>
+      <c r="D239" s="1">
+        <v>39722</v>
+      </c>
+      <c r="E239" t="s">
+        <v>8</v>
+      </c>
+      <c r="F239">
+        <v>44.08</v>
+      </c>
+      <c r="G239">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>41.4</v>
+      </c>
+      <c r="B240">
+        <v>54.5</v>
+      </c>
+      <c r="C240">
+        <v>1.3</v>
+      </c>
+      <c r="D240" s="1">
+        <v>39753</v>
+      </c>
+      <c r="E240" t="s">
+        <v>8</v>
+      </c>
+      <c r="F240">
+        <v>44.08</v>
+      </c>
+      <c r="G240">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="B241">
+        <v>44.5</v>
+      </c>
+      <c r="C241">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D241" s="1">
+        <v>39783</v>
+      </c>
+      <c r="E241" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241">
+        <v>44.08</v>
+      </c>
+      <c r="G241">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>10.1</v>
+      </c>
+      <c r="B242">
+        <v>41.7</v>
+      </c>
+      <c r="C242">
+        <v>3.6</v>
+      </c>
+      <c r="D242" s="1">
+        <v>39814</v>
+      </c>
+      <c r="E242" t="s">
+        <v>8</v>
+      </c>
+      <c r="F242">
+        <v>44.08</v>
+      </c>
+      <c r="G242">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>25.1</v>
+      </c>
+      <c r="B243">
+        <v>42.8</v>
+      </c>
+      <c r="C243">
+        <v>3.75</v>
+      </c>
+      <c r="D243" s="1">
+        <v>39845</v>
+      </c>
+      <c r="E243" t="s">
+        <v>8</v>
+      </c>
+      <c r="F243">
+        <v>44.08</v>
+      </c>
+      <c r="G243">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>53.2</v>
+      </c>
+      <c r="B244">
+        <v>55.8</v>
+      </c>
+      <c r="C244">
+        <v>3.12</v>
+      </c>
+      <c r="D244" s="1">
+        <v>39873</v>
+      </c>
+      <c r="E244" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244">
+        <v>44.08</v>
+      </c>
+      <c r="G244">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>56.1</v>
+      </c>
+      <c r="B245">
+        <v>67.7</v>
+      </c>
+      <c r="C245">
+        <v>4.38</v>
+      </c>
+      <c r="D245" s="1">
+        <v>39904</v>
+      </c>
+      <c r="E245" t="s">
+        <v>8</v>
+      </c>
+      <c r="F245">
+        <v>44.08</v>
+      </c>
+      <c r="G245">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>52.4</v>
+      </c>
+      <c r="B246">
+        <v>59.9</v>
+      </c>
+      <c r="C246">
+        <v>2.38</v>
+      </c>
+      <c r="D246" s="1">
+        <v>39934</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246">
+        <v>44.08</v>
+      </c>
+      <c r="G246">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>33.4</v>
+      </c>
+      <c r="B247">
+        <v>71.7</v>
+      </c>
+      <c r="C247">
+        <v>0.46</v>
+      </c>
+      <c r="D247" s="1">
+        <v>39965</v>
+      </c>
+      <c r="E247" t="s">
+        <v>8</v>
+      </c>
+      <c r="F247">
+        <v>44.08</v>
+      </c>
+      <c r="G247">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>41.3</v>
+      </c>
+      <c r="B248">
+        <v>77</v>
+      </c>
+      <c r="C248">
+        <v>4.47</v>
+      </c>
+      <c r="D248" s="1">
+        <v>39995</v>
+      </c>
+      <c r="E248" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248">
+        <v>44.08</v>
+      </c>
+      <c r="G248">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>55.2</v>
+      </c>
+      <c r="B249">
+        <v>83</v>
+      </c>
+      <c r="C249">
+        <v>2.58</v>
+      </c>
+      <c r="D249" s="1">
+        <v>40026</v>
+      </c>
+      <c r="E249" t="s">
+        <v>8</v>
+      </c>
+      <c r="F249">
+        <v>44.08</v>
+      </c>
+      <c r="G249">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>42.7</v>
+      </c>
+      <c r="B250">
+        <v>57.4</v>
+      </c>
+      <c r="C250">
+        <v>0.86</v>
+      </c>
+      <c r="D250" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E250" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250">
+        <v>44.08</v>
+      </c>
+      <c r="G250">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>51</v>
+      </c>
+      <c r="B251">
+        <v>49.8</v>
+      </c>
+      <c r="C251">
+        <v>0.26</v>
+      </c>
+      <c r="D251" s="1">
+        <v>40087</v>
+      </c>
+      <c r="E251" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251">
+        <v>44.08</v>
+      </c>
+      <c r="G251">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>30.3</v>
+      </c>
+      <c r="B252">
+        <v>46</v>
+      </c>
+      <c r="C252">
+        <v>3.7</v>
+      </c>
+      <c r="D252" s="1">
+        <v>40118</v>
+      </c>
+      <c r="E252" t="s">
+        <v>8</v>
+      </c>
+      <c r="F252">
+        <v>44.08</v>
+      </c>
+      <c r="G252">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>21.1</v>
+      </c>
+      <c r="B253">
+        <v>63.1</v>
+      </c>
+      <c r="C253">
+        <v>2.42</v>
+      </c>
+      <c r="D253" s="1">
+        <v>40148</v>
+      </c>
+      <c r="E253" t="s">
+        <v>8</v>
+      </c>
+      <c r="F253">
+        <v>44.08</v>
+      </c>
+      <c r="G253">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>23.1</v>
+      </c>
+      <c r="B254">
+        <v>53.7</v>
+      </c>
+      <c r="C254">
+        <v>0.12</v>
+      </c>
+      <c r="D254" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E254" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254">
+        <v>44.08</v>
+      </c>
+      <c r="G254">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>12.7</v>
+      </c>
+      <c r="B255">
+        <v>55.4</v>
+      </c>
+      <c r="C255">
+        <v>0.85</v>
+      </c>
+      <c r="D255" s="1">
+        <v>40210</v>
+      </c>
+      <c r="E255" t="s">
+        <v>8</v>
+      </c>
+      <c r="F255">
+        <v>44.08</v>
+      </c>
+      <c r="G255">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>46.8</v>
+      </c>
+      <c r="B256">
+        <v>56.7</v>
+      </c>
+      <c r="C256">
+        <v>3.37</v>
+      </c>
+      <c r="D256" s="1">
+        <v>40238</v>
+      </c>
+      <c r="E256" t="s">
+        <v>8</v>
+      </c>
+      <c r="F256">
+        <v>44.08</v>
+      </c>
+      <c r="G256">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>41.3</v>
+      </c>
+      <c r="B257">
+        <v>42.1</v>
+      </c>
+      <c r="C257">
+        <v>1.39</v>
+      </c>
+      <c r="D257" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E257" t="s">
+        <v>8</v>
+      </c>
+      <c r="F257">
+        <v>44.08</v>
+      </c>
+      <c r="G257">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>31.6</v>
+      </c>
+      <c r="B258">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="C258">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="D258" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E258" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258">
+        <v>44.08</v>
+      </c>
+      <c r="G258">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>58.4</v>
+      </c>
+      <c r="B259">
+        <v>79.8</v>
+      </c>
+      <c r="C259">
+        <v>1.94</v>
+      </c>
+      <c r="D259" s="1">
+        <v>40330</v>
+      </c>
+      <c r="E259" t="s">
+        <v>8</v>
+      </c>
+      <c r="F259">
+        <v>44.08</v>
+      </c>
+      <c r="G259">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="B260">
+        <v>91.6</v>
+      </c>
+      <c r="C260">
+        <v>0.39</v>
+      </c>
+      <c r="D260" s="1">
+        <v>40360</v>
+      </c>
+      <c r="E260" t="s">
+        <v>8</v>
+      </c>
+      <c r="F260">
+        <v>44.08</v>
+      </c>
+      <c r="G260">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>55.5</v>
+      </c>
+      <c r="B261">
+        <v>89.5</v>
+      </c>
+      <c r="C261">
+        <v>1.47</v>
+      </c>
+      <c r="D261" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E261" t="s">
+        <v>8</v>
+      </c>
+      <c r="F261">
+        <v>44.08</v>
+      </c>
+      <c r="G261">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>30.8</v>
+      </c>
+      <c r="B262">
+        <v>54</v>
+      </c>
+      <c r="C262">
+        <v>2.92</v>
+      </c>
+      <c r="D262" s="1">
+        <v>40422</v>
+      </c>
+      <c r="E262" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <v>44.08</v>
+      </c>
+      <c r="G262">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>46.8</v>
+      </c>
+      <c r="B263">
+        <v>49.1</v>
+      </c>
+      <c r="C263">
+        <v>2.9</v>
+      </c>
+      <c r="D263" s="1">
+        <v>40452</v>
+      </c>
+      <c r="E263" t="s">
+        <v>8</v>
+      </c>
+      <c r="F263">
+        <v>44.08</v>
+      </c>
+      <c r="G263">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>54.2</v>
+      </c>
+      <c r="B264">
+        <v>62</v>
+      </c>
+      <c r="C264">
+        <v>0.34</v>
+      </c>
+      <c r="D264" s="1">
+        <v>40483</v>
+      </c>
+      <c r="E264" t="s">
+        <v>8</v>
+      </c>
+      <c r="F264">
+        <v>44.08</v>
+      </c>
+      <c r="G264">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>20.7</v>
+      </c>
+      <c r="B265">
+        <v>54.1</v>
+      </c>
+      <c r="C265">
+        <v>2.81</v>
+      </c>
+      <c r="D265" s="1">
+        <v>40513</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265">
+        <v>44.08</v>
+      </c>
+      <c r="G265">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>18.8</v>
+      </c>
+      <c r="B266">
+        <v>49.4</v>
+      </c>
+      <c r="C266">
+        <v>3.1</v>
+      </c>
+      <c r="D266" s="1">
+        <v>40544</v>
+      </c>
+      <c r="E266" t="s">
+        <v>8</v>
+      </c>
+      <c r="F266">
+        <v>44.08</v>
+      </c>
+      <c r="G266">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>27.4</v>
+      </c>
+      <c r="B267">
+        <v>41.4</v>
+      </c>
+      <c r="C267">
+        <v>0.01</v>
+      </c>
+      <c r="D267" s="1">
+        <v>40575</v>
+      </c>
+      <c r="E267" t="s">
+        <v>8</v>
+      </c>
+      <c r="F267">
+        <v>44.08</v>
+      </c>
+      <c r="G267">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>38.6</v>
+      </c>
+      <c r="B268">
+        <v>58.5</v>
+      </c>
+      <c r="C268">
+        <v>4</v>
+      </c>
+      <c r="D268" s="1">
+        <v>40603</v>
+      </c>
+      <c r="E268" t="s">
+        <v>8</v>
+      </c>
+      <c r="F268">
+        <v>44.08</v>
+      </c>
+      <c r="G268">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>57.3</v>
+      </c>
+      <c r="B269">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="C269">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D269" s="1">
+        <v>40634</v>
+      </c>
+      <c r="E269" t="s">
+        <v>8</v>
+      </c>
+      <c r="F269">
+        <v>44.08</v>
+      </c>
+      <c r="G269">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>57.5</v>
+      </c>
+      <c r="B270">
+        <v>54.1</v>
+      </c>
+      <c r="C270">
+        <v>0.45</v>
+      </c>
+      <c r="D270" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E270" t="s">
+        <v>8</v>
+      </c>
+      <c r="F270">
+        <v>44.08</v>
+      </c>
+      <c r="G270">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>31.8</v>
+      </c>
+      <c r="B271">
+        <v>95.5</v>
+      </c>
+      <c r="C271">
+        <v>0.8</v>
+      </c>
+      <c r="D271" s="1">
+        <v>40695</v>
+      </c>
+      <c r="E271" t="s">
+        <v>8</v>
+      </c>
+      <c r="F271">
+        <v>44.08</v>
+      </c>
+      <c r="G271">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>59.1</v>
+      </c>
+      <c r="B272">
+        <v>87.7</v>
+      </c>
+      <c r="C272">
+        <v>1.34</v>
+      </c>
+      <c r="D272" s="1">
+        <v>40725</v>
+      </c>
+      <c r="E272" t="s">
+        <v>8</v>
+      </c>
+      <c r="F272">
+        <v>44.08</v>
+      </c>
+      <c r="G272">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>42.1</v>
+      </c>
+      <c r="B273">
+        <v>96.9</v>
+      </c>
+      <c r="C273">
+        <v>0.78</v>
+      </c>
+      <c r="D273" s="1">
+        <v>40756</v>
+      </c>
+      <c r="E273" t="s">
+        <v>8</v>
+      </c>
+      <c r="F273">
+        <v>44.08</v>
+      </c>
+      <c r="G273">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>33</v>
+      </c>
+      <c r="B274">
+        <v>60.3</v>
+      </c>
+      <c r="C274">
+        <v>0.5</v>
+      </c>
+      <c r="D274" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E274" t="s">
+        <v>8</v>
+      </c>
+      <c r="F274">
+        <v>44.08</v>
+      </c>
+      <c r="G274">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>56.1</v>
+      </c>
+      <c r="B275">
+        <v>54.7</v>
+      </c>
+      <c r="C275">
+        <v>2.5</v>
+      </c>
+      <c r="D275" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E275" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275">
+        <v>44.08</v>
+      </c>
+      <c r="G275">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>31.2</v>
+      </c>
+      <c r="B276">
+        <v>54.9</v>
+      </c>
+      <c r="C276">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D276" s="1">
+        <v>40848</v>
+      </c>
+      <c r="E276" t="s">
+        <v>8</v>
+      </c>
+      <c r="F276">
+        <v>44.08</v>
+      </c>
+      <c r="G276">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>15.2</v>
+      </c>
+      <c r="B277">
+        <v>50.9</v>
+      </c>
+      <c r="C277">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D277" s="1">
+        <v>40878</v>
+      </c>
+      <c r="E277" t="s">
+        <v>8</v>
+      </c>
+      <c r="F277">
+        <v>44.08</v>
+      </c>
+      <c r="G277">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>25.7</v>
+      </c>
+      <c r="B278">
+        <v>60.6</v>
+      </c>
+      <c r="C278">
+        <v>3.07</v>
+      </c>
+      <c r="D278" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E278" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278">
+        <v>44.08</v>
+      </c>
+      <c r="G278">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>16.8</v>
+      </c>
+      <c r="B279">
+        <v>54.5</v>
+      </c>
+      <c r="C279">
+        <v>4.26</v>
+      </c>
+      <c r="D279" s="1">
+        <v>40940</v>
+      </c>
+      <c r="E279" t="s">
+        <v>8</v>
+      </c>
+      <c r="F279">
+        <v>44.08</v>
+      </c>
+      <c r="G279">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>45.4</v>
+      </c>
+      <c r="B280">
+        <v>48.9</v>
+      </c>
+      <c r="C280">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="D280" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E280" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280">
+        <v>44.08</v>
+      </c>
+      <c r="G280">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>36.6</v>
+      </c>
+      <c r="B281">
+        <v>50.6</v>
+      </c>
+      <c r="C281">
+        <v>3.83</v>
+      </c>
+      <c r="D281" s="1">
+        <v>41000</v>
+      </c>
+      <c r="E281" t="s">
+        <v>8</v>
+      </c>
+      <c r="F281">
+        <v>44.08</v>
+      </c>
+      <c r="G281">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="B282">
+        <v>61.7</v>
+      </c>
+      <c r="C282">
+        <v>3.52</v>
+      </c>
+      <c r="D282" s="1">
+        <v>41030</v>
+      </c>
+      <c r="E282" t="s">
+        <v>8</v>
+      </c>
+      <c r="F282">
+        <v>44.08</v>
+      </c>
+      <c r="G282">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>57.5</v>
+      </c>
+      <c r="B283">
+        <v>73.7</v>
+      </c>
+      <c r="C283">
+        <v>2.13</v>
+      </c>
+      <c r="D283" s="1">
+        <v>41061</v>
+      </c>
+      <c r="E283" t="s">
+        <v>8</v>
+      </c>
+      <c r="F283">
+        <v>44.08</v>
+      </c>
+      <c r="G283">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>32.4</v>
+      </c>
+      <c r="B284">
+        <v>90.7</v>
+      </c>
+      <c r="C284">
+        <v>1.81</v>
+      </c>
+      <c r="D284" s="1">
+        <v>41091</v>
+      </c>
+      <c r="E284" t="s">
+        <v>8</v>
+      </c>
+      <c r="F284">
+        <v>44.08</v>
+      </c>
+      <c r="G284">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>34.5</v>
+      </c>
+      <c r="B285">
+        <v>91.5</v>
+      </c>
+      <c r="C285">
+        <v>0.05</v>
+      </c>
+      <c r="D285" s="1">
+        <v>41122</v>
+      </c>
+      <c r="E285" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285">
+        <v>44.08</v>
+      </c>
+      <c r="G285">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>35.1</v>
+      </c>
+      <c r="B286">
+        <v>40</v>
+      </c>
+      <c r="C286">
+        <v>0.26</v>
+      </c>
+      <c r="D286" s="1">
+        <v>41153</v>
+      </c>
+      <c r="E286" t="s">
+        <v>8</v>
+      </c>
+      <c r="F286">
+        <v>44.08</v>
+      </c>
+      <c r="G286">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>56.4</v>
+      </c>
+      <c r="B287">
+        <v>59.1</v>
+      </c>
+      <c r="C287">
+        <v>1.91</v>
+      </c>
+      <c r="D287" s="1">
+        <v>41183</v>
+      </c>
+      <c r="E287" t="s">
+        <v>8</v>
+      </c>
+      <c r="F287">
+        <v>44.08</v>
+      </c>
+      <c r="G287">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>43.2</v>
+      </c>
+      <c r="B288">
+        <v>57.6</v>
+      </c>
+      <c r="C288">
+        <v>1.02</v>
+      </c>
+      <c r="D288" s="1">
+        <v>41214</v>
+      </c>
+      <c r="E288" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288">
+        <v>44.08</v>
+      </c>
+      <c r="G288">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>30</v>
+      </c>
+      <c r="B289">
+        <v>69.7</v>
+      </c>
+      <c r="C289">
+        <v>3.83</v>
+      </c>
+      <c r="D289" s="1">
+        <v>41244</v>
+      </c>
+      <c r="E289" t="s">
+        <v>8</v>
+      </c>
+      <c r="F289">
+        <v>44.08</v>
+      </c>
+      <c r="G289">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>11.3</v>
+      </c>
+      <c r="B290">
+        <v>60.9</v>
+      </c>
+      <c r="C290">
+        <v>3.43</v>
+      </c>
+      <c r="D290" s="1">
+        <v>41275</v>
+      </c>
+      <c r="E290" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290">
+        <v>44.08</v>
+      </c>
+      <c r="G290">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>27.6</v>
+      </c>
+      <c r="B291">
+        <v>56.9</v>
+      </c>
+      <c r="C291">
+        <v>2.34</v>
+      </c>
+      <c r="D291" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291">
+        <v>44.08</v>
+      </c>
+      <c r="G291">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>30.8</v>
+      </c>
+      <c r="B292">
+        <v>46.9</v>
+      </c>
+      <c r="C292">
+        <v>3.32</v>
+      </c>
+      <c r="D292" s="1">
+        <v>41334</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292">
+        <v>44.08</v>
+      </c>
+      <c r="G292">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>52.7</v>
+      </c>
+      <c r="B293">
+        <v>66.7</v>
+      </c>
+      <c r="C293">
+        <v>4.62</v>
+      </c>
+      <c r="D293" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293">
+        <v>44.08</v>
+      </c>
+      <c r="G293">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="B294">
+        <v>47.2</v>
+      </c>
+      <c r="C294">
+        <v>0.99</v>
+      </c>
+      <c r="D294" s="1">
+        <v>41395</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294">
+        <v>44.08</v>
+      </c>
+      <c r="G294">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B295">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="C295">
+        <v>1.44</v>
+      </c>
+      <c r="D295" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295">
+        <v>44.08</v>
+      </c>
+      <c r="G295">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>31.6</v>
+      </c>
+      <c r="B296">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="C296">
+        <v>4.32</v>
+      </c>
+      <c r="D296" s="1">
+        <v>41456</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296">
+        <v>44.08</v>
+      </c>
+      <c r="G296">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>54.5</v>
+      </c>
+      <c r="B297">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="C297">
+        <v>1.9</v>
+      </c>
+      <c r="D297" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297">
+        <v>44.08</v>
+      </c>
+      <c r="G297">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>36.1</v>
+      </c>
+      <c r="B298">
+        <v>41.8</v>
+      </c>
+      <c r="C298">
+        <v>4.24</v>
+      </c>
+      <c r="D298" s="1">
+        <v>41518</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298">
+        <v>44.08</v>
+      </c>
+      <c r="G298">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>30.9</v>
+      </c>
+      <c r="B299">
+        <v>49.7</v>
+      </c>
+      <c r="C299">
+        <v>0.83</v>
+      </c>
+      <c r="D299" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299">
+        <v>44.08</v>
+      </c>
+      <c r="G299">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B300">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="C300">
+        <v>0.38</v>
+      </c>
+      <c r="D300" s="1">
+        <v>41579</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300">
+        <v>44.08</v>
+      </c>
+      <c r="G300">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>28.1</v>
+      </c>
+      <c r="B301">
+        <v>67.8</v>
+      </c>
+      <c r="C301">
+        <v>1.7</v>
+      </c>
+      <c r="D301" s="1">
+        <v>41609</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301">
+        <v>44.08</v>
+      </c>
+      <c r="G301">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>15.7</v>
+      </c>
+      <c r="B302">
+        <v>65</v>
+      </c>
+      <c r="C302">
+        <v>1.67</v>
+      </c>
+      <c r="D302" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302">
+        <v>44.08</v>
+      </c>
+      <c r="G302">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>12.9</v>
+      </c>
+      <c r="B303">
+        <v>58.6</v>
+      </c>
+      <c r="C303">
+        <v>0.33</v>
+      </c>
+      <c r="D303" s="1">
+        <v>42036</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303">
+        <v>44.08</v>
+      </c>
+      <c r="G303">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>59.3</v>
+      </c>
+      <c r="B304">
+        <v>43.3</v>
+      </c>
+      <c r="C304">
+        <v>0.24</v>
+      </c>
+      <c r="D304" s="1">
+        <v>42064</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304">
+        <v>44.08</v>
+      </c>
+      <c r="G304">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>37.4</v>
+      </c>
+      <c r="B305">
+        <v>53.7</v>
+      </c>
+      <c r="C305">
+        <v>3.49</v>
+      </c>
+      <c r="D305" s="1">
+        <v>42095</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305">
+        <v>44.08</v>
+      </c>
+      <c r="G305">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>57.4</v>
+      </c>
+      <c r="B306">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="C306">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D306" s="1">
+        <v>42125</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306">
+        <v>44.08</v>
+      </c>
+      <c r="G306">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>44.6</v>
+      </c>
+      <c r="B307">
+        <v>89.2</v>
+      </c>
+      <c r="C307">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D307" s="1">
+        <v>42156</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307">
+        <v>44.08</v>
+      </c>
+      <c r="G307">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>50.9</v>
+      </c>
+      <c r="B308">
+        <v>94.6</v>
+      </c>
+      <c r="C308">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D308" s="1">
+        <v>42186</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308">
+        <v>44.08</v>
+      </c>
+      <c r="G308">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>52.5</v>
+      </c>
+      <c r="B309">
+        <v>83.4</v>
+      </c>
+      <c r="C309">
+        <v>0.6</v>
+      </c>
+      <c r="D309" s="1">
+        <v>42217</v>
+      </c>
+      <c r="E309" t="s">
+        <v>8</v>
+      </c>
+      <c r="F309">
+        <v>44.08</v>
+      </c>
+      <c r="G309">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>59.7</v>
+      </c>
+      <c r="B310">
+        <v>50.2</v>
+      </c>
+      <c r="C310">
+        <v>0.91</v>
+      </c>
+      <c r="D310" s="1">
+        <v>42248</v>
+      </c>
+      <c r="E310" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>44.08</v>
+      </c>
+      <c r="G310">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>48.6</v>
+      </c>
+      <c r="B311">
+        <v>47.5</v>
+      </c>
+      <c r="C311">
+        <v>3.23</v>
+      </c>
+      <c r="D311" s="1">
+        <v>42278</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311">
+        <v>44.08</v>
+      </c>
+      <c r="G311">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>50.5</v>
+      </c>
+      <c r="B312">
+        <v>49.7</v>
+      </c>
+      <c r="C312">
+        <v>4.34</v>
+      </c>
+      <c r="D312" s="1">
+        <v>42309</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312">
+        <v>44.08</v>
+      </c>
+      <c r="G312">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>18.8</v>
+      </c>
+      <c r="B313">
+        <v>58.5</v>
+      </c>
+      <c r="C313">
+        <v>2.67</v>
+      </c>
+      <c r="D313" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E313" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313">
+        <v>44.08</v>
+      </c>
+      <c r="G313">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>16</v>
+      </c>
+      <c r="B314">
+        <v>47</v>
+      </c>
+      <c r="C314">
+        <v>4.07</v>
+      </c>
+      <c r="D314" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E314" t="s">
+        <v>8</v>
+      </c>
+      <c r="F314">
+        <v>44.08</v>
+      </c>
+      <c r="G314">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>29</v>
+      </c>
+      <c r="B315">
+        <v>45.5</v>
+      </c>
+      <c r="C315">
+        <v>1.54</v>
+      </c>
+      <c r="D315" s="1">
+        <v>42401</v>
+      </c>
+      <c r="E315" t="s">
+        <v>8</v>
+      </c>
+      <c r="F315">
+        <v>44.08</v>
+      </c>
+      <c r="G315">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>49</v>
+      </c>
+      <c r="B316">
+        <v>48</v>
+      </c>
+      <c r="C316">
+        <v>2.31</v>
+      </c>
+      <c r="D316" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E316" t="s">
+        <v>8</v>
+      </c>
+      <c r="F316">
+        <v>44.08</v>
+      </c>
+      <c r="G316">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>49.9</v>
+      </c>
+      <c r="B317">
+        <v>44.3</v>
+      </c>
+      <c r="C317">
+        <v>1.54</v>
+      </c>
+      <c r="D317" s="1">
+        <v>42461</v>
+      </c>
+      <c r="E317" t="s">
+        <v>8</v>
+      </c>
+      <c r="F317">
+        <v>44.08</v>
+      </c>
+      <c r="G317">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>47</v>
+      </c>
+      <c r="B318">
+        <v>51.4</v>
+      </c>
+      <c r="C318">
+        <v>1.67</v>
+      </c>
+      <c r="D318" s="1">
+        <v>42491</v>
+      </c>
+      <c r="E318" t="s">
+        <v>8</v>
+      </c>
+      <c r="F318">
+        <v>44.08</v>
+      </c>
+      <c r="G318">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>59</v>
+      </c>
+      <c r="B319">
+        <v>88</v>
+      </c>
+      <c r="C319">
+        <v>4.53</v>
+      </c>
+      <c r="D319" s="1">
+        <v>42522</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319">
+        <v>44.08</v>
+      </c>
+      <c r="G319">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="B320">
+        <v>74.5</v>
+      </c>
+      <c r="C320">
+        <v>3.57</v>
+      </c>
+      <c r="D320" s="1">
+        <v>42552</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320">
+        <v>44.08</v>
+      </c>
+      <c r="G320">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>55.2</v>
+      </c>
+      <c r="B321">
+        <v>82.3</v>
+      </c>
+      <c r="C321">
+        <v>3.51</v>
+      </c>
+      <c r="D321" s="1">
+        <v>42583</v>
+      </c>
+      <c r="E321" t="s">
+        <v>8</v>
+      </c>
+      <c r="F321">
+        <v>44.08</v>
+      </c>
+      <c r="G321">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>44.2</v>
+      </c>
+      <c r="B322">
+        <v>67.2</v>
+      </c>
+      <c r="C322">
+        <v>3.22</v>
+      </c>
+      <c r="D322" s="1">
+        <v>42614</v>
+      </c>
+      <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322">
+        <v>44.08</v>
+      </c>
+      <c r="G322">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>32.1</v>
+      </c>
+      <c r="B323">
+        <v>49.6</v>
+      </c>
+      <c r="C323">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D323" s="1">
+        <v>42644</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>44.08</v>
+      </c>
+      <c r="G323">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>52.9</v>
+      </c>
+      <c r="B324">
+        <v>47.4</v>
+      </c>
+      <c r="C324">
+        <v>4.25</v>
+      </c>
+      <c r="D324" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+      <c r="F324">
+        <v>44.08</v>
+      </c>
+      <c r="G324">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>10.5</v>
+      </c>
+      <c r="B325">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="C325">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D325" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E325" t="s">
+        <v>8</v>
+      </c>
+      <c r="F325">
+        <v>44.08</v>
+      </c>
+      <c r="G325">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>14.3</v>
+      </c>
+      <c r="B326">
+        <v>64.7</v>
+      </c>
+      <c r="C326">
+        <v>3.88</v>
+      </c>
+      <c r="D326" s="1">
+        <v>43101</v>
+      </c>
+      <c r="E326" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326">
+        <v>44.08</v>
+      </c>
+      <c r="G326">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>26.6</v>
+      </c>
+      <c r="B327">
+        <v>61.9</v>
+      </c>
+      <c r="C327">
+        <v>3.19</v>
+      </c>
+      <c r="D327" s="1">
+        <v>43132</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327">
+        <v>44.08</v>
+      </c>
+      <c r="G327">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>31.9</v>
+      </c>
+      <c r="B328">
+        <v>61.8</v>
+      </c>
+      <c r="C328">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D328" s="1">
+        <v>43160</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328">
+        <v>44.08</v>
+      </c>
+      <c r="G328">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B329">
+        <v>62.7</v>
+      </c>
+      <c r="C329">
+        <v>0.67</v>
+      </c>
+      <c r="D329" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E329" t="s">
+        <v>8</v>
+      </c>
+      <c r="F329">
+        <v>44.08</v>
+      </c>
+      <c r="G329">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>51.6</v>
+      </c>
+      <c r="B330">
+        <v>53.8</v>
+      </c>
+      <c r="C330">
+        <v>1.26</v>
+      </c>
+      <c r="D330" s="1">
+        <v>43221</v>
+      </c>
+      <c r="E330" t="s">
+        <v>8</v>
+      </c>
+      <c r="F330">
+        <v>44.08</v>
+      </c>
+      <c r="G330">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="B331">
+        <v>82.9</v>
+      </c>
+      <c r="C331">
+        <v>3.48</v>
+      </c>
+      <c r="D331" s="1">
+        <v>43252</v>
+      </c>
+      <c r="E331" t="s">
+        <v>8</v>
+      </c>
+      <c r="F331">
+        <v>44.08</v>
+      </c>
+      <c r="G331">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>42.3</v>
+      </c>
+      <c r="B332">
+        <v>72.3</v>
+      </c>
+      <c r="C332">
+        <v>1.07</v>
+      </c>
+      <c r="D332" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E332" t="s">
+        <v>8</v>
+      </c>
+      <c r="F332">
+        <v>44.08</v>
+      </c>
+      <c r="G332">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>43.9</v>
+      </c>
+      <c r="B333">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C333">
+        <v>0.4</v>
+      </c>
+      <c r="D333" s="1">
+        <v>43313</v>
+      </c>
+      <c r="E333" t="s">
+        <v>8</v>
+      </c>
+      <c r="F333">
+        <v>44.08</v>
+      </c>
+      <c r="G333">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>52.4</v>
+      </c>
+      <c r="B334">
+        <v>57.4</v>
+      </c>
+      <c r="C334">
+        <v>3.66</v>
+      </c>
+      <c r="D334" s="1">
+        <v>43344</v>
+      </c>
+      <c r="E334" t="s">
+        <v>8</v>
+      </c>
+      <c r="F334">
+        <v>44.08</v>
+      </c>
+      <c r="G334">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>59.7</v>
+      </c>
+      <c r="B335">
+        <v>55.8</v>
+      </c>
+      <c r="C335">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="D335" s="1">
+        <v>43374</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335">
+        <v>44.08</v>
+      </c>
+      <c r="G335">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>48.7</v>
+      </c>
+      <c r="B336">
+        <v>58.3</v>
+      </c>
+      <c r="C336">
+        <v>0.06</v>
+      </c>
+      <c r="D336" s="1">
+        <v>43405</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336">
+        <v>44.08</v>
+      </c>
+      <c r="G336">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>23.5</v>
+      </c>
+      <c r="B337">
+        <v>46.3</v>
+      </c>
+      <c r="C337">
+        <v>0.46</v>
+      </c>
+      <c r="D337" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E337" t="s">
+        <v>8</v>
+      </c>
+      <c r="F337">
+        <v>44.08</v>
+      </c>
+      <c r="G337">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>28.2</v>
+      </c>
+      <c r="B338">
+        <v>49.7</v>
+      </c>
+      <c r="C338">
+        <v>0.13</v>
+      </c>
+      <c r="D338" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E338" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338">
+        <v>44.08</v>
+      </c>
+      <c r="G338">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>28.7</v>
+      </c>
+      <c r="B339">
+        <v>60.8</v>
+      </c>
+      <c r="C339">
+        <v>1.9</v>
+      </c>
+      <c r="D339" s="1">
+        <v>43497</v>
+      </c>
+      <c r="E339" t="s">
+        <v>8</v>
+      </c>
+      <c r="F339">
+        <v>44.08</v>
+      </c>
+      <c r="G339">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="B340">
+        <v>54.2</v>
+      </c>
+      <c r="C340">
+        <v>0.63</v>
+      </c>
+      <c r="D340" s="1">
+        <v>43525</v>
+      </c>
+      <c r="E340" t="s">
+        <v>8</v>
+      </c>
+      <c r="F340">
+        <v>44.08</v>
+      </c>
+      <c r="G340">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>57.7</v>
+      </c>
+      <c r="B341">
+        <v>55.6</v>
+      </c>
+      <c r="C341">
+        <v>4.08</v>
+      </c>
+      <c r="D341" s="1">
+        <v>43556</v>
+      </c>
+      <c r="E341" t="s">
+        <v>8</v>
+      </c>
+      <c r="F341">
+        <v>44.08</v>
+      </c>
+      <c r="G341">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>50.2</v>
+      </c>
+      <c r="B342">
+        <v>57.5</v>
+      </c>
+      <c r="C342">
+        <v>1.02</v>
+      </c>
+      <c r="D342" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E342" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342">
+        <v>44.08</v>
+      </c>
+      <c r="G342">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>34.4</v>
+      </c>
+      <c r="B343">
+        <v>77.7</v>
+      </c>
+      <c r="C343">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D343" s="1">
+        <v>43617</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343">
+        <v>44.08</v>
+      </c>
+      <c r="G343">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>42.1</v>
+      </c>
+      <c r="B344">
+        <v>92.9</v>
+      </c>
+      <c r="C344">
+        <v>3.57</v>
+      </c>
+      <c r="D344" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344">
+        <v>44.08</v>
+      </c>
+      <c r="G344">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>30.4</v>
+      </c>
+      <c r="B345">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C345">
+        <v>4.01</v>
+      </c>
+      <c r="D345" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E345" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345">
+        <v>44.08</v>
+      </c>
+      <c r="G345">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>50.9</v>
+      </c>
+      <c r="B346">
+        <v>52.7</v>
+      </c>
+      <c r="C346">
+        <v>3.72</v>
+      </c>
+      <c r="D346" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+      <c r="F346">
+        <v>44.08</v>
+      </c>
+      <c r="G346">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>51.5</v>
+      </c>
+      <c r="B347">
+        <v>57.4</v>
+      </c>
+      <c r="C347">
+        <v>1.06</v>
+      </c>
+      <c r="D347" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347">
+        <v>44.08</v>
+      </c>
+      <c r="G347">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>43.8</v>
+      </c>
+      <c r="B348">
+        <v>53.6</v>
+      </c>
+      <c r="C348">
+        <v>1.83</v>
+      </c>
+      <c r="D348" s="1">
+        <v>43770</v>
+      </c>
+      <c r="E348" t="s">
+        <v>8</v>
+      </c>
+      <c r="F348">
+        <v>44.08</v>
+      </c>
+      <c r="G348">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>11.2</v>
+      </c>
+      <c r="B349">
+        <v>59.4</v>
+      </c>
+      <c r="C349">
+        <v>1.24</v>
+      </c>
+      <c r="D349" s="1">
+        <v>43800</v>
+      </c>
+      <c r="E349" t="s">
+        <v>8</v>
+      </c>
+      <c r="F349">
+        <v>44.08</v>
+      </c>
+      <c r="G349">
+        <v>-123.08</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>12.6</v>
+      </c>
+      <c r="B350">
+        <v>61.5</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350" s="1">
+        <v>39448</v>
+      </c>
+      <c r="E350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350">
+        <v>42.82</v>
+      </c>
+      <c r="G350">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>16</v>
+      </c>
+      <c r="B351">
+        <v>42.6</v>
+      </c>
+      <c r="C351">
+        <v>0.21</v>
+      </c>
+      <c r="D351" s="1">
+        <v>39479</v>
+      </c>
+      <c r="E351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351">
+        <v>42.82</v>
+      </c>
+      <c r="G351">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="B352">
+        <v>42.3</v>
+      </c>
+      <c r="C352">
+        <v>0.05</v>
+      </c>
+      <c r="D352" s="1">
+        <v>39508</v>
+      </c>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352">
+        <v>42.82</v>
+      </c>
+      <c r="G352">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>55.8</v>
+      </c>
+      <c r="B353">
+        <v>63.9</v>
+      </c>
+      <c r="C353">
+        <v>0.2</v>
+      </c>
+      <c r="D353" s="1">
+        <v>39539</v>
+      </c>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353">
+        <v>42.82</v>
+      </c>
+      <c r="G353">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>34.9</v>
+      </c>
+      <c r="B354">
+        <v>54.2</v>
+      </c>
+      <c r="C354">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D354" s="1">
+        <v>39569</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354">
+        <v>42.82</v>
+      </c>
+      <c r="G354">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>35.5</v>
+      </c>
+      <c r="B355">
+        <v>86.2</v>
+      </c>
+      <c r="C355">
+        <v>0.02</v>
+      </c>
+      <c r="D355" s="1">
+        <v>39600</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355">
+        <v>42.82</v>
+      </c>
+      <c r="G355">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>58</v>
+      </c>
+      <c r="B356">
+        <v>70.7</v>
+      </c>
+      <c r="C356">
+        <v>0.24</v>
+      </c>
+      <c r="D356" s="1">
+        <v>39630</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356">
+        <v>42.82</v>
+      </c>
+      <c r="G356">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>35.6</v>
+      </c>
+      <c r="B357">
+        <v>88.2</v>
+      </c>
+      <c r="C357">
+        <v>0.19</v>
+      </c>
+      <c r="D357" s="1">
+        <v>39661</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357">
+        <v>42.82</v>
+      </c>
+      <c r="G357">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="B358">
+        <v>49.5</v>
+      </c>
+      <c r="C358">
+        <v>0.01</v>
+      </c>
+      <c r="D358" s="1">
+        <v>39692</v>
+      </c>
+      <c r="E358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358">
+        <v>42.82</v>
+      </c>
+      <c r="G358">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>30.4</v>
+      </c>
+      <c r="B359">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C359">
+        <v>0.23</v>
+      </c>
+      <c r="D359" s="1">
+        <v>39722</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359">
+        <v>42.82</v>
+      </c>
+      <c r="G359">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>54.2</v>
+      </c>
+      <c r="B360">
+        <v>62.6</v>
+      </c>
+      <c r="C360">
+        <v>0.09</v>
+      </c>
+      <c r="D360" s="1">
+        <v>39753</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360">
+        <v>42.82</v>
+      </c>
+      <c r="G360">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>23.2</v>
+      </c>
+      <c r="B361">
+        <v>54.9</v>
+      </c>
+      <c r="C361">
+        <v>0.17</v>
+      </c>
+      <c r="D361" s="1">
+        <v>39783</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361">
+        <v>42.82</v>
+      </c>
+      <c r="G361">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>1.4</v>
+      </c>
+      <c r="B362">
+        <v>57.5</v>
+      </c>
+      <c r="C362">
+        <v>0.11</v>
+      </c>
+      <c r="D362" s="1">
+        <v>39814</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362">
+        <v>42.82</v>
+      </c>
+      <c r="G362">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>0.6</v>
+      </c>
+      <c r="B363">
+        <v>61.7</v>
+      </c>
+      <c r="C363">
+        <v>0.08</v>
+      </c>
+      <c r="D363" s="1">
+        <v>39845</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363">
+        <v>42.82</v>
+      </c>
+      <c r="G363">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>43.3</v>
+      </c>
+      <c r="B364">
+        <v>40.6</v>
+      </c>
+      <c r="C364">
+        <v>0.08</v>
+      </c>
+      <c r="D364" s="1">
+        <v>39873</v>
+      </c>
+      <c r="E364" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364">
+        <v>42.82</v>
+      </c>
+      <c r="G364">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>57.4</v>
+      </c>
+      <c r="B365">
+        <v>63.5</v>
+      </c>
+      <c r="C365">
+        <v>0.15</v>
+      </c>
+      <c r="D365" s="1">
+        <v>39904</v>
+      </c>
+      <c r="E365" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365">
+        <v>42.82</v>
+      </c>
+      <c r="G365">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>59</v>
+      </c>
+      <c r="B366">
+        <v>48.9</v>
+      </c>
+      <c r="C366">
+        <v>0.16</v>
+      </c>
+      <c r="D366" s="1">
+        <v>39934</v>
+      </c>
+      <c r="E366" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366">
+        <v>42.82</v>
+      </c>
+      <c r="G366">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>56.4</v>
+      </c>
+      <c r="B367">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="C367">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D367" s="1">
+        <v>39965</v>
+      </c>
+      <c r="E367" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367">
+        <v>42.82</v>
+      </c>
+      <c r="G367">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>43.7</v>
+      </c>
+      <c r="B368">
+        <v>90.2</v>
+      </c>
+      <c r="C368">
+        <v>0.1</v>
+      </c>
+      <c r="D368" s="1">
+        <v>39995</v>
+      </c>
+      <c r="E368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368">
+        <v>42.82</v>
+      </c>
+      <c r="G368">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>57.5</v>
+      </c>
+      <c r="B369">
+        <v>82</v>
+      </c>
+      <c r="C369">
+        <v>0.02</v>
+      </c>
+      <c r="D369" s="1">
+        <v>40026</v>
+      </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369">
+        <v>42.82</v>
+      </c>
+      <c r="G369">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>50.8</v>
+      </c>
+      <c r="B370">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C370">
+        <v>0.23</v>
+      </c>
+      <c r="D370" s="1">
+        <v>40057</v>
+      </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370">
+        <v>42.82</v>
+      </c>
+      <c r="G370">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>45.4</v>
+      </c>
+      <c r="B371">
+        <v>44.2</v>
+      </c>
+      <c r="C371">
+        <v>0.01</v>
+      </c>
+      <c r="D371" s="1">
+        <v>40087</v>
+      </c>
+      <c r="E371" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371">
+        <v>42.82</v>
+      </c>
+      <c r="G371">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>42.9</v>
+      </c>
+      <c r="B372">
+        <v>53.6</v>
+      </c>
+      <c r="C372">
+        <v>0.02</v>
+      </c>
+      <c r="D372" s="1">
+        <v>40118</v>
+      </c>
+      <c r="E372" t="s">
+        <v>9</v>
+      </c>
+      <c r="F372">
+        <v>42.82</v>
+      </c>
+      <c r="G372">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>14.6</v>
+      </c>
+      <c r="B373">
+        <v>47.8</v>
+      </c>
+      <c r="C373">
+        <v>0.27</v>
+      </c>
+      <c r="D373" s="1">
+        <v>40148</v>
+      </c>
+      <c r="E373" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373">
+        <v>42.82</v>
+      </c>
+      <c r="G373">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>11.9</v>
+      </c>
+      <c r="B374">
+        <v>60.1</v>
+      </c>
+      <c r="C374">
+        <v>0.15</v>
+      </c>
+      <c r="D374" s="1">
+        <v>40179</v>
+      </c>
+      <c r="E374" t="s">
+        <v>9</v>
+      </c>
+      <c r="F374">
+        <v>42.82</v>
+      </c>
+      <c r="G374">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>26.9</v>
+      </c>
+      <c r="B375">
+        <v>67</v>
+      </c>
+      <c r="C375">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D375" s="1">
+        <v>40210</v>
+      </c>
+      <c r="E375" t="s">
+        <v>9</v>
+      </c>
+      <c r="F375">
+        <v>42.82</v>
+      </c>
+      <c r="G375">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="B376">
+        <v>62.5</v>
+      </c>
+      <c r="C376">
+        <v>0.09</v>
+      </c>
+      <c r="D376" s="1">
+        <v>40238</v>
+      </c>
+      <c r="E376" t="s">
+        <v>9</v>
+      </c>
+      <c r="F376">
+        <v>42.82</v>
+      </c>
+      <c r="G376">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>32.5</v>
+      </c>
+      <c r="B377">
+        <v>64.5</v>
+      </c>
+      <c r="C377">
+        <v>0.21</v>
+      </c>
+      <c r="D377" s="1">
+        <v>40269</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377">
+        <v>42.82</v>
+      </c>
+      <c r="G377">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>45.2</v>
+      </c>
+      <c r="B378">
+        <v>62.4</v>
+      </c>
+      <c r="C378">
+        <v>0.3</v>
+      </c>
+      <c r="D378" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378">
+        <v>42.82</v>
+      </c>
+      <c r="G378">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="B379">
+        <v>88.3</v>
+      </c>
+      <c r="C379">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D379" s="1">
+        <v>40330</v>
+      </c>
+      <c r="E379" t="s">
+        <v>9</v>
+      </c>
+      <c r="F379">
+        <v>42.82</v>
+      </c>
+      <c r="G379">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>46.7</v>
+      </c>
+      <c r="B380">
+        <v>92.9</v>
+      </c>
+      <c r="C380">
+        <v>0.17</v>
+      </c>
+      <c r="D380" s="1">
+        <v>40360</v>
+      </c>
+      <c r="E380" t="s">
+        <v>9</v>
+      </c>
+      <c r="F380">
+        <v>42.82</v>
+      </c>
+      <c r="G380">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B381">
+        <v>75</v>
+      </c>
+      <c r="C381">
+        <v>0.01</v>
+      </c>
+      <c r="D381" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E381" t="s">
+        <v>9</v>
+      </c>
+      <c r="F381">
+        <v>42.82</v>
+      </c>
+      <c r="G381">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="B382">
+        <v>56.3</v>
+      </c>
+      <c r="C382">
+        <v>0.06</v>
+      </c>
+      <c r="D382" s="1">
+        <v>40422</v>
+      </c>
+      <c r="E382" t="s">
+        <v>9</v>
+      </c>
+      <c r="F382">
+        <v>42.82</v>
+      </c>
+      <c r="G382">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>32.5</v>
+      </c>
+      <c r="B383">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C383">
+        <v>0.24</v>
+      </c>
+      <c r="D383" s="1">
+        <v>40452</v>
+      </c>
+      <c r="E383" t="s">
+        <v>9</v>
+      </c>
+      <c r="F383">
+        <v>42.82</v>
+      </c>
+      <c r="G383">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>30.9</v>
+      </c>
+      <c r="B384">
+        <v>51.9</v>
+      </c>
+      <c r="C384">
+        <v>0.03</v>
+      </c>
+      <c r="D384" s="1">
+        <v>40483</v>
+      </c>
+      <c r="E384" t="s">
+        <v>9</v>
+      </c>
+      <c r="F384">
+        <v>42.82</v>
+      </c>
+      <c r="G384">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>12.3</v>
+      </c>
+      <c r="B385">
+        <v>62.2</v>
+      </c>
+      <c r="C385">
+        <v>0.13</v>
+      </c>
+      <c r="D385" s="1">
+        <v>40513</v>
+      </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385">
+        <v>42.82</v>
+      </c>
+      <c r="G385">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>27.3</v>
+      </c>
+      <c r="B386">
+        <v>43.1</v>
+      </c>
+      <c r="C386">
+        <v>0.26</v>
+      </c>
+      <c r="D386" s="1">
+        <v>40544</v>
+      </c>
+      <c r="E386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F386">
+        <v>42.82</v>
+      </c>
+      <c r="G386">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>0.6</v>
+      </c>
+      <c r="B387">
+        <v>60.9</v>
+      </c>
+      <c r="C387">
+        <v>0.02</v>
+      </c>
+      <c r="D387" s="1">
+        <v>40575</v>
+      </c>
+      <c r="E387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F387">
+        <v>42.82</v>
+      </c>
+      <c r="G387">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>48.9</v>
+      </c>
+      <c r="B388">
+        <v>56.5</v>
+      </c>
+      <c r="C388">
+        <v>0.04</v>
+      </c>
+      <c r="D388" s="1">
+        <v>40603</v>
+      </c>
+      <c r="E388" t="s">
+        <v>9</v>
+      </c>
+      <c r="F388">
+        <v>42.82</v>
+      </c>
+      <c r="G388">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>34.1</v>
+      </c>
+      <c r="B389">
+        <v>48.7</v>
+      </c>
+      <c r="C389">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D389" s="1">
+        <v>40634</v>
+      </c>
+      <c r="E389" t="s">
+        <v>9</v>
+      </c>
+      <c r="F389">
+        <v>42.82</v>
+      </c>
+      <c r="G389">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>36</v>
+      </c>
+      <c r="B390">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C390">
+        <v>0.24</v>
+      </c>
+      <c r="D390" s="1">
+        <v>40664</v>
+      </c>
+      <c r="E390" t="s">
+        <v>9</v>
+      </c>
+      <c r="F390">
+        <v>42.82</v>
+      </c>
+      <c r="G390">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>39.5</v>
+      </c>
+      <c r="B391">
+        <v>90.3</v>
+      </c>
+      <c r="C391">
+        <v>0.06</v>
+      </c>
+      <c r="D391" s="1">
+        <v>40695</v>
+      </c>
+      <c r="E391" t="s">
+        <v>9</v>
+      </c>
+      <c r="F391">
+        <v>42.82</v>
+      </c>
+      <c r="G391">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>49.5</v>
+      </c>
+      <c r="B392">
+        <v>92.5</v>
+      </c>
+      <c r="C392">
+        <v>0.03</v>
+      </c>
+      <c r="D392" s="1">
+        <v>40725</v>
+      </c>
+      <c r="E392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F392">
+        <v>42.82</v>
+      </c>
+      <c r="G392">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>50.8</v>
+      </c>
+      <c r="B393">
+        <v>86.6</v>
+      </c>
+      <c r="C393">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D393" s="1">
+        <v>40756</v>
+      </c>
+      <c r="E393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393">
+        <v>42.82</v>
+      </c>
+      <c r="G393">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>41.6</v>
+      </c>
+      <c r="B394">
+        <v>57.2</v>
+      </c>
+      <c r="C394">
+        <v>0.11</v>
+      </c>
+      <c r="D394" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E394" t="s">
+        <v>9</v>
+      </c>
+      <c r="F394">
+        <v>42.82</v>
+      </c>
+      <c r="G394">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>52</v>
+      </c>
+      <c r="B395">
+        <v>57.7</v>
+      </c>
+      <c r="C395">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D395" s="1">
+        <v>40817</v>
+      </c>
+      <c r="E395" t="s">
+        <v>9</v>
+      </c>
+      <c r="F395">
+        <v>42.82</v>
+      </c>
+      <c r="G395">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>53.8</v>
+      </c>
+      <c r="B396">
+        <v>59.6</v>
+      </c>
+      <c r="C396">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D396" s="1">
+        <v>40848</v>
+      </c>
+      <c r="E396" t="s">
+        <v>9</v>
+      </c>
+      <c r="F396">
+        <v>42.82</v>
+      </c>
+      <c r="G396">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>10.7</v>
+      </c>
+      <c r="B397">
+        <v>41.3</v>
+      </c>
+      <c r="C397">
+        <v>0.12</v>
+      </c>
+      <c r="D397" s="1">
+        <v>40878</v>
+      </c>
+      <c r="E397" t="s">
+        <v>9</v>
+      </c>
+      <c r="F397">
+        <v>42.82</v>
+      </c>
+      <c r="G397">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>12.6</v>
+      </c>
+      <c r="B398">
+        <v>60.8</v>
+      </c>
+      <c r="C398">
+        <v>0.21</v>
+      </c>
+      <c r="D398" s="1">
+        <v>40909</v>
+      </c>
+      <c r="E398" t="s">
+        <v>9</v>
+      </c>
+      <c r="F398">
+        <v>42.82</v>
+      </c>
+      <c r="G398">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>25.1</v>
+      </c>
+      <c r="B399">
+        <v>51</v>
+      </c>
+      <c r="C399">
+        <v>0.01</v>
+      </c>
+      <c r="D399" s="1">
+        <v>40940</v>
+      </c>
+      <c r="E399" t="s">
+        <v>9</v>
+      </c>
+      <c r="F399">
+        <v>42.82</v>
+      </c>
+      <c r="G399">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>48.4</v>
+      </c>
+      <c r="B400">
+        <v>52.4</v>
+      </c>
+      <c r="C400">
+        <v>0.02</v>
+      </c>
+      <c r="D400" s="1">
+        <v>40969</v>
+      </c>
+      <c r="E400" t="s">
+        <v>9</v>
+      </c>
+      <c r="F400">
+        <v>42.82</v>
+      </c>
+      <c r="G400">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>31.7</v>
+      </c>
+      <c r="B401">
+        <v>65</v>
+      </c>
+      <c r="C401">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D401" s="1">
+        <v>41000</v>
+      </c>
+      <c r="E401" t="s">
+        <v>9</v>
+      </c>
+      <c r="F401">
+        <v>42.82</v>
+      </c>
+      <c r="G401">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>42.1</v>
+      </c>
+      <c r="B402">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="C402">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D402" s="1">
+        <v>41030</v>
+      </c>
+      <c r="E402" t="s">
+        <v>9</v>
+      </c>
+      <c r="F402">
+        <v>42.82</v>
+      </c>
+      <c r="G402">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>56.9</v>
+      </c>
+      <c r="B403">
+        <v>88.3</v>
+      </c>
+      <c r="C403">
+        <v>0.06</v>
+      </c>
+      <c r="D403" s="1">
+        <v>41061</v>
+      </c>
+      <c r="E403" t="s">
+        <v>9</v>
+      </c>
+      <c r="F403">
+        <v>42.82</v>
+      </c>
+      <c r="G403">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>36.5</v>
+      </c>
+      <c r="B404">
+        <v>96.5</v>
+      </c>
+      <c r="C404">
+        <v>0.05</v>
+      </c>
+      <c r="D404" s="1">
+        <v>41091</v>
+      </c>
+      <c r="E404" t="s">
+        <v>9</v>
+      </c>
+      <c r="F404">
+        <v>42.82</v>
+      </c>
+      <c r="G404">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>50.6</v>
+      </c>
+      <c r="B405">
+        <v>94.5</v>
+      </c>
+      <c r="C405">
+        <v>0.02</v>
+      </c>
+      <c r="D405" s="1">
+        <v>41122</v>
+      </c>
+      <c r="E405" t="s">
+        <v>9</v>
+      </c>
+      <c r="F405">
+        <v>42.82</v>
+      </c>
+      <c r="G405">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>45.5</v>
+      </c>
+      <c r="B406">
+        <v>61</v>
+      </c>
+      <c r="C406">
+        <v>0.22</v>
+      </c>
+      <c r="D406" s="1">
+        <v>41153</v>
+      </c>
+      <c r="E406" t="s">
+        <v>9</v>
+      </c>
+      <c r="F406">
+        <v>42.82</v>
+      </c>
+      <c r="G406">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>58.5</v>
+      </c>
+      <c r="B407">
+        <v>64.2</v>
+      </c>
+      <c r="C407">
+        <v>0.01</v>
+      </c>
+      <c r="D407" s="1">
+        <v>41183</v>
+      </c>
+      <c r="E407" t="s">
+        <v>9</v>
+      </c>
+      <c r="F407">
+        <v>42.82</v>
+      </c>
+      <c r="G407">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>33.1</v>
+      </c>
+      <c r="B408">
+        <v>57.9</v>
+      </c>
+      <c r="C408">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D408" s="1">
+        <v>41214</v>
+      </c>
+      <c r="E408" t="s">
+        <v>9</v>
+      </c>
+      <c r="F408">
+        <v>42.82</v>
+      </c>
+      <c r="G408">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>13.6</v>
+      </c>
+      <c r="B409">
+        <v>70</v>
+      </c>
+      <c r="C409">
+        <v>0.05</v>
+      </c>
+      <c r="D409" s="1">
+        <v>41244</v>
+      </c>
+      <c r="E409" t="s">
+        <v>9</v>
+      </c>
+      <c r="F409">
+        <v>42.82</v>
+      </c>
+      <c r="G409">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>1.2</v>
+      </c>
+      <c r="B410">
+        <v>53.2</v>
+      </c>
+      <c r="C410">
+        <v>0.22</v>
+      </c>
+      <c r="D410" s="1">
+        <v>41275</v>
+      </c>
+      <c r="E410" t="s">
+        <v>9</v>
+      </c>
+      <c r="F410">
+        <v>42.82</v>
+      </c>
+      <c r="G410">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>1.8</v>
+      </c>
+      <c r="B411">
+        <v>69.5</v>
+      </c>
+      <c r="C411">
+        <v>0.15</v>
+      </c>
+      <c r="D411" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E411" t="s">
+        <v>9</v>
+      </c>
+      <c r="F411">
+        <v>42.82</v>
+      </c>
+      <c r="G411">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>31.4</v>
+      </c>
+      <c r="B412">
+        <v>46</v>
+      </c>
+      <c r="C412">
+        <v>0.2</v>
+      </c>
+      <c r="D412" s="1">
+        <v>41334</v>
+      </c>
+      <c r="E412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F412">
+        <v>42.82</v>
+      </c>
+      <c r="G412">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>38</v>
+      </c>
+      <c r="B413">
+        <v>51.8</v>
+      </c>
+      <c r="C413">
+        <v>0.02</v>
+      </c>
+      <c r="D413" s="1">
+        <v>41365</v>
+      </c>
+      <c r="E413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F413">
+        <v>42.82</v>
+      </c>
+      <c r="G413">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>44.7</v>
+      </c>
+      <c r="B414">
+        <v>62</v>
+      </c>
+      <c r="C414">
+        <v>0.15</v>
+      </c>
+      <c r="D414" s="1">
+        <v>41395</v>
+      </c>
+      <c r="E414" t="s">
+        <v>9</v>
+      </c>
+      <c r="F414">
+        <v>42.82</v>
+      </c>
+      <c r="G414">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>37.9</v>
+      </c>
+      <c r="B415">
+        <v>96.4</v>
+      </c>
+      <c r="C415">
+        <v>0.11</v>
+      </c>
+      <c r="D415" s="1">
+        <v>41426</v>
+      </c>
+      <c r="E415" t="s">
+        <v>9</v>
+      </c>
+      <c r="F415">
+        <v>42.82</v>
+      </c>
+      <c r="G415">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A416">
+        <v>30.2</v>
+      </c>
+      <c r="B416">
+        <v>99.4</v>
+      </c>
+      <c r="C416">
+        <v>0.3</v>
+      </c>
+      <c r="D416" s="1">
+        <v>41456</v>
+      </c>
+      <c r="E416" t="s">
+        <v>9</v>
+      </c>
+      <c r="F416">
+        <v>42.82</v>
+      </c>
+      <c r="G416">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A417">
+        <v>57.4</v>
+      </c>
+      <c r="B417">
+        <v>84.3</v>
+      </c>
+      <c r="C417">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D417" s="1">
+        <v>41487</v>
+      </c>
+      <c r="E417" t="s">
+        <v>9</v>
+      </c>
+      <c r="F417">
+        <v>42.82</v>
+      </c>
+      <c r="G417">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A418">
+        <v>46.1</v>
+      </c>
+      <c r="B418">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="C418">
+        <v>0.04</v>
+      </c>
+      <c r="D418" s="1">
+        <v>41518</v>
+      </c>
+      <c r="E418" t="s">
+        <v>9</v>
+      </c>
+      <c r="F418">
+        <v>42.82</v>
+      </c>
+      <c r="G418">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A419">
+        <v>48.9</v>
+      </c>
+      <c r="B419">
+        <v>52.7</v>
+      </c>
+      <c r="C419">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D419" s="1">
+        <v>41548</v>
+      </c>
+      <c r="E419" t="s">
+        <v>9</v>
+      </c>
+      <c r="F419">
+        <v>42.82</v>
+      </c>
+      <c r="G419">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A420">
+        <v>59.1</v>
+      </c>
+      <c r="B420">
+        <v>45.4</v>
+      </c>
+      <c r="C420">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D420" s="1">
+        <v>41579</v>
+      </c>
+      <c r="E420" t="s">
+        <v>9</v>
+      </c>
+      <c r="F420">
+        <v>42.82</v>
+      </c>
+      <c r="G420">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A421">
+        <v>5.8</v>
+      </c>
+      <c r="B421">
+        <v>50.1</v>
+      </c>
+      <c r="C421">
+        <v>0.09</v>
+      </c>
+      <c r="D421" s="1">
+        <v>41609</v>
+      </c>
+      <c r="E421" t="s">
+        <v>9</v>
+      </c>
+      <c r="F421">
+        <v>42.82</v>
+      </c>
+      <c r="G421">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A422">
+        <v>20.6</v>
+      </c>
+      <c r="B422">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="C422">
+        <v>0.17</v>
+      </c>
+      <c r="D422" s="1">
+        <v>42005</v>
+      </c>
+      <c r="E422" t="s">
+        <v>9</v>
+      </c>
+      <c r="F422">
+        <v>42.82</v>
+      </c>
+      <c r="G422">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A423">
+        <v>6.4</v>
+      </c>
+      <c r="B423">
+        <v>59.7</v>
+      </c>
+      <c r="C423">
+        <v>0.22</v>
+      </c>
+      <c r="D423" s="1">
+        <v>42036</v>
+      </c>
+      <c r="E423" t="s">
+        <v>9</v>
+      </c>
+      <c r="F423">
+        <v>42.82</v>
+      </c>
+      <c r="G423">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A424">
+        <v>49</v>
+      </c>
+      <c r="B424">
+        <v>52.3</v>
+      </c>
+      <c r="C424">
+        <v>0.2</v>
+      </c>
+      <c r="D424" s="1">
+        <v>42064</v>
+      </c>
+      <c r="E424" t="s">
+        <v>9</v>
+      </c>
+      <c r="F424">
+        <v>42.82</v>
+      </c>
+      <c r="G424">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A425">
+        <v>48.3</v>
+      </c>
+      <c r="B425">
+        <v>61.2</v>
+      </c>
+      <c r="C425">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D425" s="1">
+        <v>42095</v>
+      </c>
+      <c r="E425" t="s">
+        <v>9</v>
+      </c>
+      <c r="F425">
+        <v>42.82</v>
+      </c>
+      <c r="G425">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A426">
+        <v>58.1</v>
+      </c>
+      <c r="B426">
+        <v>61.3</v>
+      </c>
+      <c r="C426">
+        <v>0.09</v>
+      </c>
+      <c r="D426" s="1">
+        <v>42125</v>
+      </c>
+      <c r="E426" t="s">
+        <v>9</v>
+      </c>
+      <c r="F426">
+        <v>42.82</v>
+      </c>
+      <c r="G426">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A427">
+        <v>45</v>
+      </c>
+      <c r="B427">
+        <v>80.8</v>
+      </c>
+      <c r="C427">
+        <v>0.19</v>
+      </c>
+      <c r="D427" s="1">
+        <v>42156</v>
+      </c>
+      <c r="E427" t="s">
+        <v>9</v>
+      </c>
+      <c r="F427">
+        <v>42.82</v>
+      </c>
+      <c r="G427">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A428">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="B428">
+        <v>82.5</v>
+      </c>
+      <c r="C428">
+        <v>0.09</v>
+      </c>
+      <c r="D428" s="1">
+        <v>42186</v>
+      </c>
+      <c r="E428" t="s">
+        <v>9</v>
+      </c>
+      <c r="F428">
+        <v>42.82</v>
+      </c>
+      <c r="G428">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A429">
+        <v>31</v>
+      </c>
+      <c r="B429">
+        <v>90.9</v>
+      </c>
+      <c r="C429">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D429" s="1">
+        <v>42217</v>
+      </c>
+      <c r="E429" t="s">
+        <v>9</v>
+      </c>
+      <c r="F429">
+        <v>42.82</v>
+      </c>
+      <c r="G429">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A430">
+        <v>51.1</v>
+      </c>
+      <c r="B430">
+        <v>62.5</v>
+      </c>
+      <c r="C430">
+        <v>0.3</v>
+      </c>
+      <c r="D430" s="1">
+        <v>42248</v>
+      </c>
+      <c r="E430" t="s">
+        <v>9</v>
+      </c>
+      <c r="F430">
+        <v>42.82</v>
+      </c>
+      <c r="G430">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A431">
+        <v>46.5</v>
+      </c>
+      <c r="B431">
+        <v>58</v>
+      </c>
+      <c r="C431">
+        <v>0.06</v>
+      </c>
+      <c r="D431" s="1">
+        <v>42278</v>
+      </c>
+      <c r="E431" t="s">
+        <v>9</v>
+      </c>
+      <c r="F431">
+        <v>42.82</v>
+      </c>
+      <c r="G431">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A432">
+        <v>59</v>
+      </c>
+      <c r="B432">
+        <v>70</v>
+      </c>
+      <c r="C432">
+        <v>0.17</v>
+      </c>
+      <c r="D432" s="1">
+        <v>42309</v>
+      </c>
+      <c r="E432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F432">
+        <v>42.82</v>
+      </c>
+      <c r="G432">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A433">
+        <v>8.5</v>
+      </c>
+      <c r="B433">
+        <v>41.4</v>
+      </c>
+      <c r="C433">
+        <v>0.02</v>
+      </c>
+      <c r="D433" s="1">
+        <v>42339</v>
+      </c>
+      <c r="E433" t="s">
+        <v>9</v>
+      </c>
+      <c r="F433">
+        <v>42.82</v>
+      </c>
+      <c r="G433">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A434">
+        <v>16.2</v>
+      </c>
+      <c r="B434">
+        <v>49.8</v>
+      </c>
+      <c r="C434">
+        <v>0.22</v>
+      </c>
+      <c r="D434" s="1">
+        <v>42370</v>
+      </c>
+      <c r="E434" t="s">
+        <v>9</v>
+      </c>
+      <c r="F434">
+        <v>42.82</v>
+      </c>
+      <c r="G434">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A435">
+        <v>4.2</v>
+      </c>
+      <c r="B435">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C435">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D435" s="1">
+        <v>42401</v>
+      </c>
+      <c r="E435" t="s">
+        <v>9</v>
+      </c>
+      <c r="F435">
+        <v>42.82</v>
+      </c>
+      <c r="G435">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A436">
+        <v>43.3</v>
+      </c>
+      <c r="B436">
+        <v>48.9</v>
+      </c>
+      <c r="C436">
+        <v>0.2</v>
+      </c>
+      <c r="D436" s="1">
+        <v>42430</v>
+      </c>
+      <c r="E436" t="s">
+        <v>9</v>
+      </c>
+      <c r="F436">
+        <v>42.82</v>
+      </c>
+      <c r="G436">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A437">
+        <v>47.7</v>
+      </c>
+      <c r="B437">
+        <v>56.6</v>
+      </c>
+      <c r="C437">
+        <v>0.23</v>
+      </c>
+      <c r="D437" s="1">
+        <v>42461</v>
+      </c>
+      <c r="E437" t="s">
+        <v>9</v>
+      </c>
+      <c r="F437">
+        <v>42.82</v>
+      </c>
+      <c r="G437">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A438">
+        <v>41.1</v>
+      </c>
+      <c r="B438">
+        <v>53.6</v>
+      </c>
+      <c r="C438">
+        <v>0.11</v>
+      </c>
+      <c r="D438" s="1">
+        <v>42491</v>
+      </c>
+      <c r="E438" t="s">
+        <v>9</v>
+      </c>
+      <c r="F438">
+        <v>42.82</v>
+      </c>
+      <c r="G438">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A439">
+        <v>30.6</v>
+      </c>
+      <c r="B439">
+        <v>72.8</v>
+      </c>
+      <c r="C439">
+        <v>0.18</v>
+      </c>
+      <c r="D439" s="1">
+        <v>42522</v>
+      </c>
+      <c r="E439" t="s">
+        <v>9</v>
+      </c>
+      <c r="F439">
+        <v>42.82</v>
+      </c>
+      <c r="G439">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A440">
+        <v>51.6</v>
+      </c>
+      <c r="B440">
+        <v>99.8</v>
+      </c>
+      <c r="C440">
+        <v>0.15</v>
+      </c>
+      <c r="D440" s="1">
+        <v>42552</v>
+      </c>
+      <c r="E440" t="s">
+        <v>9</v>
+      </c>
+      <c r="F440">
+        <v>42.82</v>
+      </c>
+      <c r="G440">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A441">
+        <v>44.4</v>
+      </c>
+      <c r="B441">
+        <v>97</v>
+      </c>
+      <c r="C441">
+        <v>0.24</v>
+      </c>
+      <c r="D441" s="1">
+        <v>42583</v>
+      </c>
+      <c r="E441" t="s">
+        <v>9</v>
+      </c>
+      <c r="F441">
+        <v>42.82</v>
+      </c>
+      <c r="G441">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A442">
+        <v>33.6</v>
+      </c>
+      <c r="B442">
+        <v>69.2</v>
+      </c>
+      <c r="C442">
+        <v>0.09</v>
+      </c>
+      <c r="D442" s="1">
+        <v>42614</v>
+      </c>
+      <c r="E442" t="s">
+        <v>9</v>
+      </c>
+      <c r="F442">
+        <v>42.82</v>
+      </c>
+      <c r="G442">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A443">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="B443">
+        <v>43.9</v>
+      </c>
+      <c r="C443">
+        <v>0.22</v>
+      </c>
+      <c r="D443" s="1">
+        <v>42644</v>
+      </c>
+      <c r="E443" t="s">
+        <v>9</v>
+      </c>
+      <c r="F443">
+        <v>42.82</v>
+      </c>
+      <c r="G443">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A444">
+        <v>43.8</v>
+      </c>
+      <c r="B444">
+        <v>66.8</v>
+      </c>
+      <c r="C444">
+        <v>0.25</v>
+      </c>
+      <c r="D444" s="1">
+        <v>42675</v>
+      </c>
+      <c r="E444" t="s">
+        <v>9</v>
+      </c>
+      <c r="F444">
+        <v>42.82</v>
+      </c>
+      <c r="G444">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A445">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B445">
+        <v>47.2</v>
+      </c>
+      <c r="C445">
+        <v>0.06</v>
+      </c>
+      <c r="D445" s="1">
+        <v>42705</v>
+      </c>
+      <c r="E445" t="s">
+        <v>9</v>
+      </c>
+      <c r="F445">
+        <v>42.82</v>
+      </c>
+      <c r="G445">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A446">
+        <v>14.2</v>
+      </c>
+      <c r="B446">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C446">
+        <v>0.21</v>
+      </c>
+      <c r="D446" s="1">
+        <v>43101</v>
+      </c>
+      <c r="E446" t="s">
+        <v>9</v>
+      </c>
+      <c r="F446">
+        <v>42.82</v>
+      </c>
+      <c r="G446">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A447">
+        <v>24.8</v>
+      </c>
+      <c r="B447">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="C447">
+        <v>0.15</v>
+      </c>
+      <c r="D447" s="1">
+        <v>43132</v>
+      </c>
+      <c r="E447" t="s">
+        <v>9</v>
+      </c>
+      <c r="F447">
+        <v>42.82</v>
+      </c>
+      <c r="G447">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A448">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="B448">
+        <v>43.9</v>
+      </c>
+      <c r="C448">
+        <v>0.27</v>
+      </c>
+      <c r="D448" s="1">
+        <v>43160</v>
+      </c>
+      <c r="E448" t="s">
+        <v>9</v>
+      </c>
+      <c r="F448">
+        <v>42.82</v>
+      </c>
+      <c r="G448">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A449">
+        <v>55.1</v>
+      </c>
+      <c r="B449">
+        <v>50.7</v>
+      </c>
+      <c r="C449">
+        <v>0.05</v>
+      </c>
+      <c r="D449" s="1">
+        <v>43191</v>
+      </c>
+      <c r="E449" t="s">
+        <v>9</v>
+      </c>
+      <c r="F449">
+        <v>42.82</v>
+      </c>
+      <c r="G449">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A450">
+        <v>47.4</v>
+      </c>
+      <c r="B450">
+        <v>61.5</v>
+      </c>
+      <c r="C450">
+        <v>0.17</v>
+      </c>
+      <c r="D450" s="1">
+        <v>43221</v>
+      </c>
+      <c r="E450" t="s">
+        <v>9</v>
+      </c>
+      <c r="F450">
+        <v>42.82</v>
+      </c>
+      <c r="G450">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A451">
+        <v>31.6</v>
+      </c>
+      <c r="B451">
+        <v>83</v>
+      </c>
+      <c r="C451">
+        <v>0.03</v>
+      </c>
+      <c r="D451" s="1">
+        <v>43252</v>
+      </c>
+      <c r="E451" t="s">
+        <v>9</v>
+      </c>
+      <c r="F451">
+        <v>42.82</v>
+      </c>
+      <c r="G451">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A452">
+        <v>55.9</v>
+      </c>
+      <c r="B452">
+        <v>91.7</v>
+      </c>
+      <c r="C452">
+        <v>0.23</v>
+      </c>
+      <c r="D452" s="1">
+        <v>43282</v>
+      </c>
+      <c r="E452" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452">
+        <v>42.82</v>
+      </c>
+      <c r="G452">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A453">
+        <v>58</v>
+      </c>
+      <c r="B453">
+        <v>94.4</v>
+      </c>
+      <c r="C453">
+        <v>0.3</v>
+      </c>
+      <c r="D453" s="1">
+        <v>43313</v>
+      </c>
+      <c r="E453" t="s">
+        <v>9</v>
+      </c>
+      <c r="F453">
+        <v>42.82</v>
+      </c>
+      <c r="G453">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A454">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B454">
+        <v>56.8</v>
+      </c>
+      <c r="C454">
+        <v>0.08</v>
+      </c>
+      <c r="D454" s="1">
+        <v>43344</v>
+      </c>
+      <c r="E454" t="s">
+        <v>9</v>
+      </c>
+      <c r="F454">
+        <v>42.82</v>
+      </c>
+      <c r="G454">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A455">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="B455">
+        <v>48.1</v>
+      </c>
+      <c r="C455">
+        <v>0.09</v>
+      </c>
+      <c r="D455" s="1">
+        <v>43374</v>
+      </c>
+      <c r="E455" t="s">
+        <v>9</v>
+      </c>
+      <c r="F455">
+        <v>42.82</v>
+      </c>
+      <c r="G455">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A456">
+        <v>60</v>
+      </c>
+      <c r="B456">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="D456" s="1">
+        <v>43405</v>
+      </c>
+      <c r="E456" t="s">
+        <v>9</v>
+      </c>
+      <c r="F456">
+        <v>42.82</v>
+      </c>
+      <c r="G456">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A457">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B457">
+        <v>44.8</v>
+      </c>
+      <c r="C457">
+        <v>0.26</v>
+      </c>
+      <c r="D457" s="1">
+        <v>43435</v>
+      </c>
+      <c r="E457" t="s">
+        <v>9</v>
+      </c>
+      <c r="F457">
+        <v>42.82</v>
+      </c>
+      <c r="G457">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A458">
+        <v>0.7</v>
+      </c>
+      <c r="B458">
+        <v>48.4</v>
+      </c>
+      <c r="C458">
+        <v>0.2</v>
+      </c>
+      <c r="D458" s="1">
+        <v>43466</v>
+      </c>
+      <c r="E458" t="s">
+        <v>9</v>
+      </c>
+      <c r="F458">
+        <v>42.82</v>
+      </c>
+      <c r="G458">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A459">
+        <v>12.2</v>
+      </c>
+      <c r="B459">
+        <v>41.1</v>
+      </c>
+      <c r="C459">
+        <v>0.08</v>
+      </c>
+      <c r="D459" s="1">
+        <v>43497</v>
+      </c>
+      <c r="E459" t="s">
+        <v>9</v>
+      </c>
+      <c r="F459">
+        <v>42.82</v>
+      </c>
+      <c r="G459">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A460">
+        <v>58.9</v>
+      </c>
+      <c r="B460">
+        <v>52.9</v>
+      </c>
+      <c r="C460">
+        <v>0.15</v>
+      </c>
+      <c r="D460" s="1">
+        <v>43525</v>
+      </c>
+      <c r="E460" t="s">
+        <v>9</v>
+      </c>
+      <c r="F460">
+        <v>42.82</v>
+      </c>
+      <c r="G460">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A461">
+        <v>42.3</v>
+      </c>
+      <c r="B461">
+        <v>54.1</v>
+      </c>
+      <c r="C461">
+        <v>0.12</v>
+      </c>
+      <c r="D461" s="1">
+        <v>43556</v>
+      </c>
+      <c r="E461" t="s">
+        <v>9</v>
+      </c>
+      <c r="F461">
+        <v>42.82</v>
+      </c>
+      <c r="G461">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A462">
+        <v>56.9</v>
+      </c>
+      <c r="B462">
+        <v>56.5</v>
+      </c>
+      <c r="C462">
+        <v>0.03</v>
+      </c>
+      <c r="D462" s="1">
+        <v>43586</v>
+      </c>
+      <c r="E462" t="s">
+        <v>9</v>
+      </c>
+      <c r="F462">
+        <v>42.82</v>
+      </c>
+      <c r="G462">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A463">
+        <v>46.3</v>
+      </c>
+      <c r="B463">
+        <v>93.3</v>
+      </c>
+      <c r="C463">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D463" s="1">
+        <v>43617</v>
+      </c>
+      <c r="E463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F463">
+        <v>42.82</v>
+      </c>
+      <c r="G463">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A464">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B464">
+        <v>90.8</v>
+      </c>
+      <c r="C464">
+        <v>0.21</v>
+      </c>
+      <c r="D464" s="1">
+        <v>43647</v>
+      </c>
+      <c r="E464" t="s">
+        <v>9</v>
+      </c>
+      <c r="F464">
+        <v>42.82</v>
+      </c>
+      <c r="G464">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A465">
+        <v>41.6</v>
+      </c>
+      <c r="B465">
+        <v>95.4</v>
+      </c>
+      <c r="C465">
+        <v>0.06</v>
+      </c>
+      <c r="D465" s="1">
+        <v>43678</v>
+      </c>
+      <c r="E465" t="s">
+        <v>9</v>
+      </c>
+      <c r="F465">
+        <v>42.82</v>
+      </c>
+      <c r="G465">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A466">
+        <v>56.3</v>
+      </c>
+      <c r="B466">
+        <v>57.2</v>
+      </c>
+      <c r="C466">
+        <v>0.22</v>
+      </c>
+      <c r="D466" s="1">
+        <v>43709</v>
+      </c>
+      <c r="E466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F466">
+        <v>42.82</v>
+      </c>
+      <c r="G466">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A467">
+        <v>45.4</v>
+      </c>
+      <c r="B467">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C467">
+        <v>0.13</v>
+      </c>
+      <c r="D467" s="1">
+        <v>43739</v>
+      </c>
+      <c r="E467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F467">
+        <v>42.82</v>
+      </c>
+      <c r="G467">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A468">
+        <v>37.4</v>
+      </c>
+      <c r="B468">
+        <v>45.4</v>
+      </c>
+      <c r="C468">
+        <v>0.18</v>
+      </c>
+      <c r="D468" s="1">
+        <v>43770</v>
+      </c>
+      <c r="E468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F468">
+        <v>42.82</v>
+      </c>
+      <c r="G468">
+        <v>-118.35</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A469">
+        <v>19.7</v>
+      </c>
+      <c r="B469">
+        <v>55.7</v>
+      </c>
+      <c r="C469">
+        <v>0.25</v>
+      </c>
+      <c r="D469" s="1">
+        <v>43800</v>
+      </c>
+      <c r="E469" t="s">
+        <v>9</v>
+      </c>
+      <c r="F469">
+        <v>42.82</v>
+      </c>
+      <c r="G469">
         <v>-118.35</v>
       </c>
     </row>
